--- a/Ground Segment/COMMS -- GS 2019/Link Budget/UHF-LinkBudget-Western.xlsx
+++ b/Ground Segment/COMMS -- GS 2019/Link Budget/UHF-LinkBudget-Western.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca.sharepoint.com/sites/SabarinathanLaboratory/Shared Documents/CubeSat/Comms/Link Budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas Mitchell\Documents\Cubesat\Github documents\CubeSat\Ground Segment\COMMS -- GS 2019\Link Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{1409C5AC-B512-4B9C-8E10-7B6B7599D5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{543B5F14-E07A-44B5-B861-ECFDA8C72B67}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277198EA-B979-47E3-A598-373F4D8EA5DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="-96" windowWidth="22056" windowHeight="13152" tabRatio="850" activeTab="3" xr2:uid="{293003C9-1163-4E50-8A98-C049B95988DD}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" tabRatio="850" activeTab="3" xr2:uid="{293003C9-1163-4E50-8A98-C049B95988DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -222,6 +223,107 @@
         </r>
       </text>
     </comment>
+    <comment ref="V25" authorId="0" shapeId="0" xr:uid="{44A6C021-44D4-4E15-9258-8BB524F5BFFF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nicholas Mitchell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Connector Losses assumed to be 0.1 dB each (fairly large) 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V26" authorId="0" shapeId="0" xr:uid="{61355283-EED2-4008-97B0-AD1A7E626F5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nicholas Mitchell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Needs to be taken into account by capstone students
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V27" authorId="0" shapeId="0" xr:uid="{E8097769-D31F-40F0-8225-B87F306D536F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nicholas Mitchell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Capstone students, 
+Likely for PA, LNA, Surge protector and isolator</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V28" authorId="0" shapeId="0" xr:uid="{BF2DDE5C-4696-4D16-BD01-F31049D27AFF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nicholas Mitchell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Antenna VSWR is 1.5 Maximum
+equal to mismatch loss of 0.177dB 
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y50" authorId="0" shapeId="0" xr:uid="{9814FF33-AC8F-4CD8-823F-8F90CE8BA65C}">
       <text>
         <r>
@@ -303,8 +405,15 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Comment:
-    Connectors  X  0.05 dB/Con.</t>
+          <t xml:space="preserve">Comment:
+ Antenna connector: SSMCX female?
+(Unsure on this!!)
+MMCX female?
+Transceiver connector: 
+MMCX female
+Need cable from SSMCX to MMCX 
+Assumed to have 0.1 dB of loss per connector for now. 
+</t>
         </r>
       </text>
     </comment>
@@ -328,9 +437,13 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+For Cable: 
 Maximum VSWR = 1.3
 equivalent of missmatch of : 0.075 dB
 Equivalent of return loss of 17.69dB 
+For Antenna: 
+Maximum VSWR of 1.15 
+mismatch loss of 0.021 dB
 https://www.allaboutcircuits.com/tools/vswr-return-loss-calculator/
 for more info
 </t>
@@ -4630,6 +4743,33 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4657,32 +4797,11 @@
     <xf numFmtId="49" fontId="0" fillId="23" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4695,12 +4814,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10844,7 +10957,7 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -10994,7 +11107,7 @@
       </c>
       <c r="E9" s="80">
         <f>Transmitters!V64</f>
-        <v>0.39400000000000002</v>
+        <v>0.41500000000000004</v>
       </c>
       <c r="F9" s="98" t="s">
         <v>38</v>
@@ -11032,7 +11145,7 @@
       </c>
       <c r="E11" s="79">
         <f>E7-E9+E10</f>
-        <v>1.1059999999999999</v>
+        <v>1.085</v>
       </c>
       <c r="F11" s="98" t="s">
         <v>44</v>
@@ -11180,7 +11293,7 @@
       </c>
       <c r="E19" s="79">
         <f>E11-SUM(E13:E18)</f>
-        <v>-152.28482821685787</v>
+        <v>-152.30582821685786</v>
       </c>
       <c r="F19" s="98" t="s">
         <v>44</v>
@@ -11272,7 +11385,7 @@
       </c>
       <c r="E24" s="79">
         <f>E8+'Downlink Budget'!E10+'Downlink Budget'!E21-E9-E15-SUM(E13:E14,E16:E18)-Receivers!V77</f>
-        <v>-111.03127821685786</v>
+        <v>-111.05227821685787</v>
       </c>
       <c r="F24" s="98" t="s">
         <v>216</v>
@@ -11314,7 +11427,7 @@
       </c>
       <c r="E26" s="79">
         <f>E24-E25</f>
-        <v>16.737055225856949</v>
+        <v>16.716055225856934</v>
       </c>
       <c r="F26" s="98" t="s">
         <v>38</v>
@@ -11352,7 +11465,7 @@
       </c>
       <c r="E28" s="192">
         <f>E26-E27</f>
-        <v>3.5870552258569486</v>
+        <v>3.5660552258569336</v>
       </c>
       <c r="F28" s="98" t="s">
         <v>38</v>
@@ -11483,7 +11596,7 @@
       </c>
       <c r="E35" s="117">
         <f>E19-E30-Inputs!V10+E34</f>
-        <v>61.694489221460387</v>
+        <v>61.6734892214604</v>
       </c>
       <c r="F35" s="97" t="s">
         <v>191</v>
@@ -11538,7 +11651,7 @@
       </c>
       <c r="E38" s="117">
         <f>E35-E37</f>
-        <v>21.871776891064705</v>
+        <v>21.850776891064719</v>
       </c>
       <c r="F38" s="97" t="s">
         <v>38</v>
@@ -11593,7 +11706,7 @@
       </c>
       <c r="E41" s="204">
         <f>E38-E40</f>
-        <v>8.7217768910647049</v>
+        <v>8.7007768910647183</v>
       </c>
       <c r="F41" s="112" t="s">
         <v>38</v>
@@ -11629,7 +11742,7 @@
       </c>
       <c r="E43" s="121">
         <f>IF((E28)&lt;0,"Link not completed!",((E22)*LOG((1+E28),2)))</f>
-        <v>54939.206921328157</v>
+        <v>54773.707722026942</v>
       </c>
       <c r="F43" s="122" t="s">
         <v>117</v>
@@ -16080,11 +16193,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="325" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
       <c r="D1" s="229"/>
       <c r="F1" s="251"/>
     </row>
@@ -16172,10 +16285,10 @@
       <c r="A10" s="250" t="s">
         <v>341</v>
       </c>
-      <c r="B10" s="324" t="s">
+      <c r="B10" s="326" t="s">
         <v>342</v>
       </c>
-      <c r="C10" s="324"/>
+      <c r="C10" s="326"/>
       <c r="D10" s="229"/>
     </row>
     <row r="11" spans="1:6" s="231" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -16207,11 +16320,11 @@
       <c r="D13" s="229"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="325" t="s">
+      <c r="A14" s="327" t="s">
         <v>343</v>
       </c>
-      <c r="B14" s="325"/>
-      <c r="C14" s="325"/>
+      <c r="B14" s="327"/>
+      <c r="C14" s="327"/>
       <c r="D14" s="229"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -16278,10 +16391,10 @@
       <c r="A21" s="253" t="s">
         <v>341</v>
       </c>
-      <c r="B21" s="326" t="s">
+      <c r="B21" s="328" t="s">
         <v>359</v>
       </c>
-      <c r="C21" s="326"/>
+      <c r="C21" s="328"/>
       <c r="D21" s="229"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -16313,11 +16426,11 @@
       <c r="D24" s="229"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="323" t="s">
+      <c r="A25" s="325" t="s">
         <v>362</v>
       </c>
-      <c r="B25" s="323"/>
-      <c r="C25" s="323"/>
+      <c r="B25" s="325"/>
+      <c r="C25" s="325"/>
       <c r="D25" s="229"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -16374,10 +16487,10 @@
       <c r="A31" s="250" t="s">
         <v>371</v>
       </c>
-      <c r="B31" s="327" t="s">
+      <c r="B31" s="323" t="s">
         <v>372</v>
       </c>
-      <c r="C31" s="328"/>
+      <c r="C31" s="324"/>
       <c r="D31" s="229"/>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -16409,22 +16522,22 @@
       <c r="D34" s="229"/>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="315" t="s">
+      <c r="A35" s="306" t="s">
         <v>375</v>
       </c>
-      <c r="B35" s="315"/>
-      <c r="C35" s="315"/>
-      <c r="D35" s="315"/>
+      <c r="B35" s="306"/>
+      <c r="C35" s="306"/>
+      <c r="D35" s="306"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="316" t="s">
+      <c r="A36" s="307" t="s">
         <v>376</v>
       </c>
-      <c r="B36" s="317"/>
-      <c r="C36" s="318" t="s">
+      <c r="B36" s="308"/>
+      <c r="C36" s="309" t="s">
         <v>377</v>
       </c>
-      <c r="D36" s="319"/>
+      <c r="D36" s="310"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="257" t="s">
@@ -16483,12 +16596,12 @@
       <c r="D42" s="260"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="320" t="s">
+      <c r="A43" s="311" t="s">
         <v>341</v>
       </c>
-      <c r="B43" s="321"/>
-      <c r="C43" s="321"/>
-      <c r="D43" s="322"/>
+      <c r="B43" s="312"/>
+      <c r="C43" s="312"/>
+      <c r="D43" s="313"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="257" t="s">
@@ -16580,27 +16693,27 @@
       <c r="A51" s="257" t="s">
         <v>431</v>
       </c>
-      <c r="B51" s="308" t="s">
+      <c r="B51" s="317" t="s">
         <v>432</v>
       </c>
-      <c r="C51" s="309"/>
-      <c r="D51" s="310"/>
+      <c r="C51" s="318"/>
+      <c r="D51" s="319"/>
     </row>
     <row r="52" spans="1:4" s="231" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="257" t="s">
         <v>434</v>
       </c>
-      <c r="B52" s="308" t="s">
+      <c r="B52" s="317" t="s">
         <v>433</v>
       </c>
-      <c r="C52" s="309"/>
-      <c r="D52" s="310"/>
+      <c r="C52" s="318"/>
+      <c r="D52" s="319"/>
     </row>
     <row r="53" spans="1:4" s="231" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="259"/>
-      <c r="B53" s="311"/>
-      <c r="C53" s="312"/>
-      <c r="D53" s="313"/>
+      <c r="B53" s="320"/>
+      <c r="C53" s="321"/>
+      <c r="D53" s="322"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="229"/>
@@ -16609,11 +16722,11 @@
       <c r="D54" s="229"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="314" t="s">
+      <c r="A55" s="305" t="s">
         <v>402</v>
       </c>
-      <c r="B55" s="314"/>
-      <c r="C55" s="314"/>
+      <c r="B55" s="305"/>
+      <c r="C55" s="305"/>
       <c r="D55" s="229"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -16709,11 +16822,11 @@
       <c r="D65" s="229"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="314" t="s">
+      <c r="A66" s="305" t="s">
         <v>418</v>
       </c>
-      <c r="B66" s="314"/>
-      <c r="C66" s="314"/>
+      <c r="B66" s="305"/>
+      <c r="C66" s="305"/>
       <c r="D66" s="229"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -16733,7 +16846,7 @@
       <c r="B68" s="264" t="s">
         <v>421</v>
       </c>
-      <c r="C68" s="305" t="s">
+      <c r="C68" s="314" t="s">
         <v>420</v>
       </c>
       <c r="D68" s="229"/>
@@ -16745,7 +16858,7 @@
       <c r="B69" s="264" t="s">
         <v>422</v>
       </c>
-      <c r="C69" s="306"/>
+      <c r="C69" s="315"/>
       <c r="D69" s="229"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -16755,7 +16868,7 @@
       <c r="B70" s="264">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C70" s="306"/>
+      <c r="C70" s="315"/>
       <c r="D70" s="229"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -16765,7 +16878,7 @@
       <c r="B71" s="264" t="s">
         <v>423</v>
       </c>
-      <c r="C71" s="306"/>
+      <c r="C71" s="315"/>
       <c r="D71" s="229"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -16775,7 +16888,7 @@
       <c r="B72" s="264" t="s">
         <v>423</v>
       </c>
-      <c r="C72" s="306"/>
+      <c r="C72" s="315"/>
       <c r="D72" s="229"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -16785,7 +16898,7 @@
       <c r="B73" s="265" t="s">
         <v>412</v>
       </c>
-      <c r="C73" s="306"/>
+      <c r="C73" s="315"/>
       <c r="D73" s="229"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -16795,7 +16908,7 @@
       <c r="B74" s="264" t="s">
         <v>425</v>
       </c>
-      <c r="C74" s="307"/>
+      <c r="C74" s="316"/>
       <c r="D74" s="229"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -16815,11 +16928,11 @@
       <c r="D76" s="229"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="314" t="s">
+      <c r="A77" s="305" t="s">
         <v>458</v>
       </c>
-      <c r="B77" s="314"/>
-      <c r="C77" s="314"/>
+      <c r="B77" s="305"/>
+      <c r="C77" s="305"/>
       <c r="D77" s="229"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -16903,11 +17016,11 @@
       <c r="D84" s="229"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="314" t="s">
+      <c r="A85" s="305" t="s">
         <v>462</v>
       </c>
-      <c r="B85" s="314"/>
-      <c r="C85" s="314"/>
+      <c r="B85" s="305"/>
+      <c r="C85" s="305"/>
       <c r="D85" s="229"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -17021,8 +17134,8 @@
   </sheetPr>
   <dimension ref="A1:AQ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32:W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.7" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -18117,7 +18230,9 @@
       <c r="S24" s="330"/>
       <c r="T24" s="330"/>
       <c r="U24" s="331"/>
-      <c r="V24" s="333"/>
+      <c r="V24" s="333">
+        <v>2</v>
+      </c>
       <c r="W24" s="333"/>
       <c r="X24" s="333"/>
       <c r="Y24" s="32" t="s">
@@ -18166,7 +18281,9 @@
       <c r="S25" s="330"/>
       <c r="T25" s="330"/>
       <c r="U25" s="334"/>
-      <c r="V25" s="335"/>
+      <c r="V25" s="335">
+        <v>0.1</v>
+      </c>
       <c r="W25" s="335"/>
       <c r="X25" s="335"/>
       <c r="Y25" s="32" t="s">
@@ -18313,7 +18430,9 @@
       <c r="S28" s="330"/>
       <c r="T28" s="330"/>
       <c r="U28" s="331"/>
-      <c r="V28" s="333"/>
+      <c r="V28" s="333">
+        <v>0.17699999999999999</v>
+      </c>
       <c r="W28" s="333"/>
       <c r="X28" s="333"/>
       <c r="Y28" s="32" t="s">
@@ -18455,8 +18574,8 @@
       </c>
       <c r="U31" s="331"/>
       <c r="V31" s="335">
-        <f>T21+SUM(V25:X28)</f>
-        <v>0.40094999999999997</v>
+        <f>T21+SUM(V26:X28)+V24*V25</f>
+        <v>0.77794999999999992</v>
       </c>
       <c r="W31" s="335"/>
       <c r="X31" s="32" t="s">
@@ -18508,7 +18627,7 @@
       <c r="U32" s="331"/>
       <c r="V32" s="335">
         <f>T16-V31</f>
-        <v>-0.40094999999999997</v>
+        <v>-0.77794999999999992</v>
       </c>
       <c r="W32" s="345"/>
       <c r="X32" s="32" t="s">
@@ -19701,7 +19820,7 @@
       <c r="T57" s="336"/>
       <c r="U57" s="336"/>
       <c r="V57" s="339">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W57" s="340"/>
       <c r="X57" s="341"/>
@@ -19752,7 +19871,7 @@
       <c r="T58" s="336"/>
       <c r="U58" s="336"/>
       <c r="V58" s="342">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="W58" s="343"/>
       <c r="X58" s="344"/>
@@ -19905,7 +20024,8 @@
       <c r="T61" s="336"/>
       <c r="U61" s="336"/>
       <c r="V61" s="339">
-        <v>7.4999999999999997E-2</v>
+        <f>0.075+0.021</f>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="W61" s="340"/>
       <c r="X61" s="341"/>
@@ -20048,8 +20168,8 @@
       </c>
       <c r="U64" s="336"/>
       <c r="V64" s="337">
-        <f>T54+SUM(V58:X61)</f>
-        <v>0.39400000000000002</v>
+        <f>T54+SUM(V59:X61)+V57*V58</f>
+        <v>0.41500000000000004</v>
       </c>
       <c r="W64" s="338"/>
       <c r="X64" s="41" t="s">
@@ -20101,7 +20221,7 @@
       <c r="U65" s="336"/>
       <c r="V65" s="337">
         <f>T49-V64</f>
-        <v>-0.39400000000000002</v>
+        <v>-0.41500000000000004</v>
       </c>
       <c r="W65" s="338"/>
       <c r="X65" s="41" t="s">
@@ -20335,7 +20455,7 @@
   </sheetPr>
   <dimension ref="A1:AX58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
@@ -23105,8 +23225,8 @@
   </sheetPr>
   <dimension ref="A1:AQ91"/>
   <sheetViews>
-    <sheetView topLeftCell="L64" zoomScale="104" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="V74" sqref="V74:X74"/>
+    <sheetView topLeftCell="L70" zoomScale="104" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="Z67" sqref="Z67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.7" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -28918,7 +29038,7 @@
   </sheetPr>
   <dimension ref="A1:AQ108"/>
   <sheetViews>
-    <sheetView topLeftCell="E85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="U100" sqref="U100"/>
     </sheetView>
   </sheetViews>
@@ -34237,7 +34357,7 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -34396,7 +34516,7 @@
       </c>
       <c r="E9" s="79">
         <f>Transmitters!V31</f>
-        <v>0.40094999999999997</v>
+        <v>0.77794999999999992</v>
       </c>
       <c r="F9" s="98" t="s">
         <v>38</v>
@@ -34436,7 +34556,7 @@
       </c>
       <c r="E11" s="79">
         <f>E7-E9+E10</f>
-        <v>12.899050000000001</v>
+        <v>12.52205</v>
       </c>
       <c r="F11" s="98" t="s">
         <v>44</v>
@@ -34590,7 +34710,7 @@
       </c>
       <c r="E19" s="79">
         <f>E11-SUM(E13:E18)</f>
-        <v>-140.49177821685788</v>
+        <v>-140.86877821685786</v>
       </c>
       <c r="F19" s="98" t="s">
         <v>44</v>
@@ -34718,7 +34838,7 @@
       </c>
       <c r="E26" s="79">
         <f>E19-E21+E22-E23</f>
-        <v>-139.6917782168579</v>
+        <v>-140.06877821685788</v>
       </c>
       <c r="F26" s="98" t="s">
         <v>44</v>
@@ -34775,7 +34895,7 @@
       </c>
       <c r="E29" s="79">
         <f>E26-E28</f>
-        <v>19.709276873040409</v>
+        <v>19.332276873040428</v>
       </c>
       <c r="F29" s="98" t="s">
         <v>38</v>
@@ -34815,7 +34935,7 @@
       </c>
       <c r="E31" s="204">
         <f>IF((E29-E30)&lt;0,"Link not completed!",E29-E30)</f>
-        <v>5.8092768730404085</v>
+        <v>5.4322768730404274</v>
       </c>
       <c r="F31" s="98" t="s">
         <v>38</v>
@@ -34946,7 +35066,7 @@
       </c>
       <c r="E38" s="117">
         <f>E19-E33-Inputs!V10+E37</f>
-        <v>63.888676959760801</v>
+        <v>63.51167695976082</v>
       </c>
       <c r="F38" s="97" t="s">
         <v>191</v>
@@ -35001,7 +35121,7 @@
       </c>
       <c r="E41" s="117">
         <f>E38-E40</f>
-        <v>24.065964629365119</v>
+        <v>23.688964629365138</v>
       </c>
       <c r="F41" s="97" t="s">
         <v>38</v>
@@ -35056,7 +35176,7 @@
       </c>
       <c r="E44" s="204">
         <f>IF((E41-E43)&lt;0,"Link not completed!",E41-E43)</f>
-        <v>10.165964629365119</v>
+        <v>9.7889646293651378</v>
       </c>
       <c r="F44" s="112" t="s">
         <v>38</v>
@@ -35092,7 +35212,7 @@
       </c>
       <c r="E46" s="121">
         <f>IF(E44&lt;0,"Link not completed!",((E27)*LOG((1+E44),2)))</f>
-        <v>87025.899651835251</v>
+        <v>85787.112927606984</v>
       </c>
       <c r="F46" s="122" t="s">
         <v>117</v>

--- a/Ground Segment/COMMS -- GS 2019/Link Budget/UHF-LinkBudget-Western.xlsx
+++ b/Ground Segment/COMMS -- GS 2019/Link Budget/UHF-LinkBudget-Western.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas Mitchell\Documents\Cubesat\Github documents\CubeSat\Ground Segment\COMMS -- GS 2019\Link Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277198EA-B979-47E3-A598-373F4D8EA5DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2C4DA1-06E1-4955-A464-61CDFD7AFEF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" tabRatio="850" activeTab="3" xr2:uid="{293003C9-1163-4E50-8A98-C049B95988DD}"/>
+    <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" tabRatio="850" firstSheet="1" activeTab="10" xr2:uid="{293003C9-1163-4E50-8A98-C049B95988DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="Downlink">'Backend Data'!$N$47:$X$52</definedName>
     <definedName name="Uplink">'Backend Data'!$N$40:$X$45</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -205,22 +208,10 @@
     </comment>
     <comment ref="T20" authorId="1" shapeId="0" xr:uid="{06644EBF-E1F5-4BA4-B358-009E60BCA4F6}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">LM-400 has 8.9dB of loss per 100m  at 450 MHz. 
-LM-400 has a 2.7dB loss per 30.5m at 450MHz. 
-Assuming linear loss of dB from 100m to 30.5m with a 0 attenuation loss at 0m you can calculate a slope of 0.0891dB/m
-(8.9-2.7dB)/(100-30.5m) = 0.08918dB/m
-0.089dB/m *100m = 8.9dB 
-0.089dB/m*30.5m = 2.7dB 
-</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is specific to the type of cable used &amp; frequency.</t>
       </text>
     </comment>
     <comment ref="V25" authorId="0" shapeId="0" xr:uid="{44A6C021-44D4-4E15-9258-8BB524F5BFFF}">
@@ -351,19 +342,10 @@
     </comment>
     <comment ref="T53" authorId="2" shapeId="0" xr:uid="{F2B92AC7-23F1-4387-995C-6A111280BE6B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Comment:
-    This is specific to the type of cable used &amp; frequency.
-   Initial guess made by Nick Mitchell assuming 0.1 dB/m loss 
-</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is specific to the type of cable used &amp; frequency.</t>
       </text>
     </comment>
     <comment ref="T54" authorId="0" shapeId="0" xr:uid="{2D1708A3-C0C0-4D45-9EE6-59F63DC9ADAD}">
@@ -397,24 +379,10 @@
     </comment>
     <comment ref="V58" authorId="3" shapeId="0" xr:uid="{AA3BDE40-712E-49FC-854A-2623EE77DDFE}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Comment:
- Antenna connector: SSMCX female?
-(Unsure on this!!)
-MMCX female?
-Transceiver connector: 
-MMCX female
-Need cable from SSMCX to MMCX 
-Assumed to have 0.1 dB of loss per connector for now. 
-</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Connectors  X  0.05 dB/Con.</t>
       </text>
     </comment>
     <comment ref="V61" authorId="0" shapeId="0" xr:uid="{BDCC60D2-B062-4148-9463-C2862DF3EFED}">
@@ -488,18 +456,11 @@
     </comment>
     <comment ref="W21" authorId="1" shapeId="0" xr:uid="{21EDF527-C63E-46CC-A8A9-D78C05713C6B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Current guess when operating at 435 MHz
-GOMSpace 435 Mhz antenna
-https://gomspace.com/shop/subsystems/communication-(1)/nanocom-ant430.aspx</t>
-        </r>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Current guess when operating at 400 MHz
+</t>
       </text>
     </comment>
   </commentList>
@@ -521,34 +482,18 @@
   <commentList>
     <comment ref="T20" authorId="0" shapeId="0" xr:uid="{29AB711D-40D4-4098-8F56-32EE5AC3499F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Comment:
-    This is specific to the type of cable used &amp; frequency, initial guess given
-</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is specific to the type of cable used &amp; frequency.</t>
       </text>
     </comment>
     <comment ref="V27" authorId="1" shapeId="0" xr:uid="{924103A3-1E75-49C6-B4D0-265F67831FD1}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Comment:
-   Safety margin of 0.2 connector loss
-</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Connectors  X  0.05 dB/Con.</t>
       </text>
     </comment>
     <comment ref="V28" authorId="2" shapeId="0" xr:uid="{94CAA7DC-4943-4881-B95A-F53020F98BD2}">
@@ -602,68 +547,40 @@
     </comment>
     <comment ref="V36" authorId="3" shapeId="0" xr:uid="{F906572A-7D01-46E1-80EA-B3029D468BD7}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Comment:
- Gain weighted average used here by recommendation of CSA as a rough estimate. 
-Assumptions: 
--Earth takes up half the unit sphere, (300k)
--
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Flux value taken from: http://www.hamradiodaily.com/
+equation for antenna sky temperature from : 
+https://en.wikipedia.org/wiki/Antenna_noise_temperature
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="V37" authorId="4" shapeId="0" xr:uid="{7D00511A-C340-4AD3-B022-F83C2CEE5FF7}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Comment:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Value taken from ITU presentation
 https://www.itu.int/en/ITU-R/space/workshops/2016-small-sat/Documents/Link_budget_uvigo.pdf</t>
-        </r>
       </text>
     </comment>
     <comment ref="V38" authorId="5" shapeId="0" xr:uid="{A82AE0B7-9255-42F5-9759-AED98780337C}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Comment:
-    Noise figure of the LNA is 1.5 including filter losses
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Noise figure of transceiver is 0.9dB 
 </t>
-        </r>
       </text>
     </comment>
     <comment ref="V39" authorId="6" shapeId="0" xr:uid="{B8E7810C-BCD1-4F12-9843-D9716682542E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Comment:
-    No clue where this information was obtained</t>
-        </r>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    No clue where this was gotten
+</t>
       </text>
     </comment>
     <comment ref="Y65" authorId="2" shapeId="0" xr:uid="{45D01977-FE23-47C1-9693-6D67B242B53A}">
@@ -718,19 +635,10 @@
     </comment>
     <comment ref="V72" authorId="7" shapeId="0" xr:uid="{A60F4093-4EFA-4A99-AFC8-5694D46BE29F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Connectors  X  0.1 dB/Con, initial guess
-</t>
-        </r>
+    Connectors  X  0.05 dB/Con.</t>
       </text>
     </comment>
   </commentList>
@@ -747,16 +655,12 @@
   <commentList>
     <comment ref="Y10" authorId="0" shapeId="0" xr:uid="{E2AFC99D-A20C-4E24-BF8D-7D9E7E86132E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Rain attenuation will need to be looked at further in depth. </t>
-        </r>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Link:
+http://www.waves.utoronto.ca/prof/svhum/ece422/notes/20b-atmospheric.pdf?fbclid=IwAR2oVL_9TkEH4mXklzxo_iNu5hyJ8jxbcKOk16BTHitMQmBwhpPEPx-8710
+</t>
       </text>
     </comment>
     <comment ref="X16" authorId="1" shapeId="0" xr:uid="{0E1E6DBA-9F16-4BC1-AD87-2A8049A1B7B0}">
@@ -811,17 +715,12 @@
     </comment>
     <comment ref="R54" authorId="2" shapeId="0" xr:uid="{D6B0170A-2AB0-424C-AB7E-6F9ADB212ED2}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Information from: https://www.mtiwe.com/?CategoryID=353&amp;ArticleID=163
-initial guess at the axial ratios of the antenna </t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Axial Ratios:
+Circular: 1.0
+Elliptical: 2.0</t>
       </text>
     </comment>
     <comment ref="Z79" authorId="1" shapeId="0" xr:uid="{A23566E2-58D3-436D-8B74-220699045D82}">
@@ -995,15 +894,9 @@
     </comment>
     <comment ref="B71" authorId="1" shapeId="0" xr:uid="{55D5A880-3829-4B5F-B051-F7BA1872011F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Comment:
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Atmospheric Attenuation generated from equations supplied by ITU: 
 Link: 
 http://www.waves.utoronto.ca/prof/svhum/ece422/notes/20b-atmospheric.pdf?fbclid=IwAR2oVL_9TkEH4mXklzxo_iNu5hyJ8jxbcKOk16BTHitMQmBwhpPEPx-8710
@@ -1018,9 +911,7 @@
 Aa(theta): 
 * this value takes into account the increasing distance you pass through the atmosphere when your pointing angle changes
 equation(9)
-* remeber that CSC calculates the number in radians, so you need to convert from degrees
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -4698,11 +4589,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4713,23 +4607,20 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4742,6 +4633,24 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4797,27 +4706,6 @@
     <xf numFmtId="49" fontId="0" fillId="23" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4827,10 +4715,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="12" borderId="16" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -4839,11 +4730,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="12" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="16" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="12" borderId="24" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4863,43 +4754,13 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="16" xfId="2" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="12" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="12" borderId="24" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="12" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="12" borderId="59" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="12" borderId="58" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="12" borderId="60" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="15" xfId="1" applyFont="1" applyAlignment="1">
@@ -4914,10 +4775,64 @@
     <xf numFmtId="2" fontId="16" fillId="12" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="12" borderId="59" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="12" borderId="58" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="12" borderId="60" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="12" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4932,30 +4847,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4966,6 +4857,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4984,40 +4909,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="20" borderId="44" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8618,8 +8509,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1173481</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>248195</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
@@ -8645,7 +8536,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048001" y="4162425"/>
+          <a:off x="8641081" y="7009311"/>
           <a:ext cx="7755392" cy="2238375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8657,8 +8548,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1374247</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1940303</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -8684,7 +8575,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3660247" y="0"/>
+          <a:off x="11291132" y="0"/>
           <a:ext cx="5615198" cy="3731895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9155,9 +9046,6 @@
   <threadedComment ref="T20" personId="{F861966D-4CDD-41AA-B103-32BA93AA49AE}" id="{06644EBF-E1F5-4BA4-B358-009E60BCA4F6}">
     <text>This is specific to the type of cable used &amp; frequency.</text>
   </threadedComment>
-  <threadedComment ref="V25" personId="{F861966D-4CDD-41AA-B103-32BA93AA49AE}" id="{17F1ACFE-A015-45FD-891A-0C97BB8FA447}">
-    <text>Connectors  X  0.05 dB/Con.</text>
-  </threadedComment>
   <threadedComment ref="T53" personId="{F861966D-4CDD-41AA-B103-32BA93AA49AE}" id="{F2B92AC7-23F1-4387-995C-6A111280BE6B}">
     <text>This is specific to the type of cable used &amp; frequency.</text>
   </threadedComment>
@@ -9202,44 +9090,13 @@
     <text xml:space="preserve">No clue where this was gotten
 </text>
   </threadedComment>
-  <threadedComment ref="V41" personId="{EEACEFDE-2FEF-4DF7-A52C-99FB327ADE98}" id="{12B6582A-BEDC-4122-83C7-FCD10A49E14B}">
-    <text xml:space="preserve">Redo Calculation
-</text>
-  </threadedComment>
-  <threadedComment ref="V42" personId="{EEACEFDE-2FEF-4DF7-A52C-99FB327ADE98}" id="{7E4450CD-300A-4473-B581-D8CD91EEE1DD}">
-    <text xml:space="preserve">Just ask Endurosat
-</text>
-  </threadedComment>
-  <threadedComment ref="T62" personId="{F861966D-4CDD-41AA-B103-32BA93AA49AE}" id="{097D1D44-B6FC-4338-862E-D54A3CECD5AE}">
-    <text>This is specific to the type of cable used &amp; frequency.</text>
-  </threadedComment>
-  <threadedComment ref="R65" personId="{F861966D-4CDD-41AA-B103-32BA93AA49AE}" id="{E0EC645D-2C06-4A03-B5F0-6DD9B8E94CD4}">
-    <text xml:space="preserve">This is the cable run from the output of the Preamplifier (LNA), down the tower, to the ground station and terminating at the input to the Communications Receiver.  This cable has a moderate impact on the overall noise temperature of the system and should be a high quality, low loss cable.  The loss of this cable is modeled as a reduction in the gain of the preamplifier.  This loss and the noise temperature of the Communications Receiver have a small but, measureable impact on the system noise temperature.  The temperature effects at this location in the receiver chain may be improved by 1) increasing the gain of the LNA, 2) reducing the feedline loss or 3) improving the noise figure or temperature of the Communicaitons Receiver's first stage of gain.  </text>
-  </threadedComment>
-  <threadedComment ref="T66" personId="{F861966D-4CDD-41AA-B103-32BA93AA49AE}" id="{5C157A19-EB7E-46D5-8A72-3FC14D9B6F35}">
-    <text>This is specific to the type of cable used &amp; frequency.</text>
-  </threadedComment>
   <threadedComment ref="V72" personId="{F861966D-4CDD-41AA-B103-32BA93AA49AE}" id="{A60F4093-4EFA-4A99-AFC8-5694D46BE29F}">
     <text>Connectors  X  0.05 dB/Con.</text>
-  </threadedComment>
-  <threadedComment ref="V80" personId="{EEACEFDE-2FEF-4DF7-A52C-99FB327ADE98}" id="{A98911A5-374C-4C07-8C45-399B12215014}">
-    <text xml:space="preserve">This will be completed over the summer by anyone working on groundstation. Not enough info yet to complete
-</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="X12" personId="{EEACEFDE-2FEF-4DF7-A52C-99FB327ADE98}" id="{E58D1CF1-F911-4C40-873F-114BD21C970F}">
-    <text xml:space="preserve">Hlaf useless,
-Update for GMSK and GFSK instead of PSK 
-</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="Y10" personId="{EEACEFDE-2FEF-4DF7-A52C-99FB327ADE98}" id="{E2AFC99D-A20C-4E24-BF8D-7D9E7E86132E}">
     <text xml:space="preserve">Link:
@@ -9251,20 +9108,11 @@
 Circular: 1.0
 Elliptical: 2.0</text>
   </threadedComment>
-  <threadedComment ref="R97" personId="{F861966D-4CDD-41AA-B103-32BA93AA49AE}" id="{728086D3-EB60-4984-9772-CDA7F1436A2D}">
-    <text>Axial Ratios:
-Circular: 1.0
-Elliptical: 2.0</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D6" dT="2019-06-05T13:52:52.52" personId="{8447AA1C-3AF5-4142-B3DA-39C564570AB1}" id="{ACE04C57-AFBE-42B4-9461-5AAE6AEF0D21}">
-    <text xml:space="preserve">Questionable where this table was generated 
-</text>
-  </threadedComment>
   <threadedComment ref="B71" dT="2019-06-05T14:04:20.78" personId="{8447AA1C-3AF5-4142-B3DA-39C564570AB1}" id="{55D5A880-3829-4B5F-B051-F7BA1872011F}">
     <text xml:space="preserve">Atmospheric Attenuation generated from equations supplied by ITU: 
 Link: 
@@ -9292,8 +9140,8 @@
   </sheetPr>
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -9368,15 +9216,15 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="296" t="s">
+      <c r="R2" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="297"/>
-      <c r="T2" s="297"/>
-      <c r="U2" s="297"/>
-      <c r="V2" s="297"/>
-      <c r="W2" s="297"/>
-      <c r="X2" s="298"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="291"/>
+      <c r="U2" s="291"/>
+      <c r="V2" s="291"/>
+      <c r="W2" s="291"/>
+      <c r="X2" s="292"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -9542,15 +9390,15 @@
       <c r="O6" s="1"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="292" t="s">
+      <c r="R6" s="293" t="s">
         <v>1</v>
       </c>
-      <c r="S6" s="293"/>
-      <c r="T6" s="293"/>
-      <c r="U6" s="293"/>
-      <c r="V6" s="293"/>
-      <c r="W6" s="293"/>
-      <c r="X6" s="294"/>
+      <c r="S6" s="294"/>
+      <c r="T6" s="294"/>
+      <c r="U6" s="294"/>
+      <c r="V6" s="294"/>
+      <c r="W6" s="294"/>
+      <c r="X6" s="295"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="10"/>
       <c r="AA6" s="7"/>
@@ -9677,12 +9525,12 @@
       <c r="O9" s="1"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="290" t="s">
+      <c r="R9" s="298" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="290"/>
-      <c r="T9" s="290"/>
-      <c r="U9" s="295"/>
+      <c r="S9" s="298"/>
+      <c r="T9" s="298"/>
+      <c r="U9" s="299"/>
       <c r="V9" s="206">
         <v>299792458</v>
       </c>
@@ -9726,12 +9574,12 @@
       <c r="O10" s="1"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="9"/>
-      <c r="R10" s="299" t="s">
+      <c r="R10" s="296" t="s">
         <v>6</v>
       </c>
-      <c r="S10" s="299"/>
-      <c r="T10" s="299"/>
-      <c r="U10" s="300"/>
+      <c r="S10" s="296"/>
+      <c r="T10" s="296"/>
+      <c r="U10" s="297"/>
       <c r="V10" s="206">
         <v>-228.6</v>
       </c>
@@ -9775,12 +9623,12 @@
       <c r="O11" s="1"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="290" t="s">
+      <c r="R11" s="298" t="s">
         <v>8</v>
       </c>
-      <c r="S11" s="290"/>
-      <c r="T11" s="290"/>
-      <c r="U11" s="295"/>
+      <c r="S11" s="298"/>
+      <c r="T11" s="298"/>
+      <c r="U11" s="299"/>
       <c r="V11" s="206">
         <v>6378.17</v>
       </c>
@@ -9867,15 +9715,15 @@
       <c r="O13" s="1"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="9"/>
-      <c r="R13" s="292" t="s">
+      <c r="R13" s="293" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="293"/>
-      <c r="T13" s="293"/>
-      <c r="U13" s="293"/>
-      <c r="V13" s="293"/>
-      <c r="W13" s="293"/>
-      <c r="X13" s="294"/>
+      <c r="S13" s="294"/>
+      <c r="T13" s="294"/>
+      <c r="U13" s="294"/>
+      <c r="V13" s="294"/>
+      <c r="W13" s="294"/>
+      <c r="X13" s="295"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="1"/>
@@ -9956,11 +9804,11 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="290" t="s">
+      <c r="S15" s="298" t="s">
         <v>11</v>
       </c>
-      <c r="T15" s="290"/>
-      <c r="U15" s="290"/>
+      <c r="T15" s="298"/>
+      <c r="U15" s="298"/>
       <c r="V15" s="144">
         <v>437.30500000000001</v>
       </c>
@@ -10005,11 +9853,11 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="290" t="s">
+      <c r="S16" s="298" t="s">
         <v>13</v>
       </c>
-      <c r="T16" s="290"/>
-      <c r="U16" s="290"/>
+      <c r="T16" s="298"/>
+      <c r="U16" s="298"/>
       <c r="V16" s="127">
         <v>437.30500000000001</v>
       </c>
@@ -10096,15 +9944,15 @@
       <c r="O18" s="1"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="9"/>
-      <c r="R18" s="292" t="s">
+      <c r="R18" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="S18" s="293"/>
-      <c r="T18" s="293"/>
-      <c r="U18" s="293"/>
-      <c r="V18" s="293"/>
-      <c r="W18" s="293"/>
-      <c r="X18" s="294"/>
+      <c r="S18" s="294"/>
+      <c r="T18" s="294"/>
+      <c r="U18" s="294"/>
+      <c r="V18" s="294"/>
+      <c r="W18" s="294"/>
+      <c r="X18" s="295"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="1"/>
@@ -10184,12 +10032,12 @@
       <c r="O20" s="1"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="9"/>
-      <c r="R20" s="290" t="s">
+      <c r="R20" s="298" t="s">
         <v>15</v>
       </c>
-      <c r="S20" s="290"/>
-      <c r="T20" s="290"/>
-      <c r="U20" s="291"/>
+      <c r="S20" s="298"/>
+      <c r="T20" s="298"/>
+      <c r="U20" s="300"/>
       <c r="V20" s="128">
         <v>408</v>
       </c>
@@ -10233,14 +10081,14 @@
       <c r="O21" s="1"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="290" t="s">
+      <c r="R21" s="298" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="290"/>
-      <c r="T21" s="290"/>
-      <c r="U21" s="291"/>
+      <c r="S21" s="298"/>
+      <c r="T21" s="298"/>
+      <c r="U21" s="300"/>
       <c r="V21" s="128">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="W21" s="9" t="s">
         <v>17</v>
@@ -10282,12 +10130,12 @@
       <c r="O22" s="1"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="9"/>
-      <c r="R22" s="290" t="s">
+      <c r="R22" s="298" t="s">
         <v>18</v>
       </c>
-      <c r="S22" s="290"/>
-      <c r="T22" s="290"/>
-      <c r="U22" s="291"/>
+      <c r="S22" s="298"/>
+      <c r="T22" s="298"/>
+      <c r="U22" s="300"/>
       <c r="V22" s="127">
         <v>7</v>
       </c>
@@ -10331,12 +10179,12 @@
       <c r="O23" s="1"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="290" t="s">
+      <c r="R23" s="298" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="290"/>
-      <c r="T23" s="290"/>
-      <c r="U23" s="291"/>
+      <c r="S23" s="298"/>
+      <c r="T23" s="298"/>
+      <c r="U23" s="300"/>
       <c r="V23" s="128">
         <v>1500</v>
       </c>
@@ -10380,12 +10228,12 @@
       <c r="O24" s="1"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="290" t="s">
+      <c r="R24" s="298" t="s">
         <v>22</v>
       </c>
-      <c r="S24" s="290"/>
-      <c r="T24" s="290"/>
-      <c r="U24" s="291"/>
+      <c r="S24" s="298"/>
+      <c r="T24" s="298"/>
+      <c r="U24" s="300"/>
       <c r="V24" s="129">
         <v>1</v>
       </c>
@@ -10427,12 +10275,12 @@
       <c r="O25" s="1"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="9"/>
-      <c r="R25" s="290" t="s">
+      <c r="R25" s="298" t="s">
         <v>23</v>
       </c>
-      <c r="S25" s="290"/>
-      <c r="T25" s="290"/>
-      <c r="U25" s="291"/>
+      <c r="S25" s="298"/>
+      <c r="T25" s="298"/>
+      <c r="U25" s="300"/>
       <c r="V25" s="128">
         <v>10</v>
       </c>
@@ -10476,13 +10324,13 @@
       <c r="O26" s="1"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="9"/>
-      <c r="R26" s="290" t="str">
+      <c r="R26" s="298" t="str">
         <f>"Payload size (per "&amp;V25&amp;"s video)"</f>
         <v>Payload size (per 10s video)</v>
       </c>
-      <c r="S26" s="290"/>
-      <c r="T26" s="290"/>
-      <c r="U26" s="295"/>
+      <c r="S26" s="298"/>
+      <c r="T26" s="298"/>
+      <c r="U26" s="299"/>
       <c r="V26" s="204">
         <f>V23*15*V25/1000/V24</f>
         <v>225</v>
@@ -10570,15 +10418,15 @@
       <c r="O28" s="1"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="9"/>
-      <c r="R28" s="292" t="s">
+      <c r="R28" s="293" t="s">
         <v>25</v>
       </c>
-      <c r="S28" s="293"/>
-      <c r="T28" s="293"/>
-      <c r="U28" s="293"/>
-      <c r="V28" s="293"/>
-      <c r="W28" s="293"/>
-      <c r="X28" s="294"/>
+      <c r="S28" s="294"/>
+      <c r="T28" s="294"/>
+      <c r="U28" s="294"/>
+      <c r="V28" s="294"/>
+      <c r="W28" s="294"/>
+      <c r="X28" s="295"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="10"/>
       <c r="AA28" s="1"/>
@@ -10658,12 +10506,12 @@
       <c r="O30" s="1"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="9"/>
-      <c r="R30" s="290" t="s">
+      <c r="R30" s="298" t="s">
         <v>26</v>
       </c>
-      <c r="S30" s="290"/>
-      <c r="T30" s="290"/>
-      <c r="U30" s="291"/>
+      <c r="S30" s="298"/>
+      <c r="T30" s="298"/>
+      <c r="U30" s="300"/>
       <c r="V30" s="128">
         <v>5</v>
       </c>
@@ -10707,12 +10555,12 @@
       <c r="O31" s="1"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="9"/>
-      <c r="R31" s="290" t="s">
+      <c r="R31" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="S31" s="290"/>
-      <c r="T31" s="290"/>
-      <c r="U31" s="291"/>
+      <c r="S31" s="298"/>
+      <c r="T31" s="298"/>
+      <c r="U31" s="300"/>
       <c r="V31" s="128">
         <v>25</v>
       </c>
@@ -10912,6 +10760,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="R28:X28"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="R25:U25"/>
     <mergeCell ref="R2:X2"/>
     <mergeCell ref="R6:X6"/>
     <mergeCell ref="R10:U10"/>
@@ -10923,14 +10779,6 @@
     <mergeCell ref="R18:X18"/>
     <mergeCell ref="R20:U20"/>
     <mergeCell ref="R13:X13"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="R28:X28"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="R25:U25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10957,7 +10805,7 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -10988,13 +10836,13 @@
     <row r="2" spans="1:10" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="292" t="s">
+      <c r="C2" s="293" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="295"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -11782,7 +11630,7 @@
       </c>
       <c r="E45" s="117">
         <f>IF((E41)&lt;0,"Link not completed!",Inputs!V21)</f>
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="F45" s="98" t="s">
         <v>17</v>
@@ -11818,7 +11666,7 @@
       </c>
       <c r="E47" s="117">
         <f>IF((E41)&lt;0,"Link not completed!",(E44*E45)/1000)</f>
-        <v>2880</v>
+        <v>3321.6</v>
       </c>
       <c r="F47" s="98" t="s">
         <v>21</v>
@@ -11837,7 +11685,7 @@
       </c>
       <c r="E48" s="124">
         <f>IF((E41)&lt;0,"Link not completed!",ROUND(E47/Inputs!V23,3))</f>
-        <v>1.92</v>
+        <v>2.214</v>
       </c>
       <c r="F48" s="97"/>
       <c r="G48" s="163"/>
@@ -11854,7 +11702,7 @@
       </c>
       <c r="E49" s="124">
         <f>IF(E41&lt;0,"Link not completed!",ROUND(E47*E46/Inputs!V23,3))</f>
-        <v>13.44</v>
+        <v>15.500999999999999</v>
       </c>
       <c r="F49" s="97"/>
       <c r="G49" s="163"/>
@@ -11872,7 +11720,7 @@
       </c>
       <c r="E50" s="117">
         <f>IF(E41&lt;0,"Link not completed!",ROUND((E47/(Inputs!V23/Inputs!V24)),3))</f>
-        <v>1.92</v>
+        <v>2.214</v>
       </c>
       <c r="F50" s="97"/>
       <c r="G50" s="163"/>
@@ -11890,7 +11738,7 @@
       </c>
       <c r="E51" s="124">
         <f>IF(E41&lt;0,"Link not completed!",ROUND((E47/(Inputs!V23/Inputs!V24))*E46,3))</f>
-        <v>13.44</v>
+        <v>15.500999999999999</v>
       </c>
       <c r="F51" s="97"/>
       <c r="G51" s="163"/>
@@ -11907,7 +11755,7 @@
       </c>
       <c r="E52" s="124">
         <f>IF(E41&lt;0,"Link not completed!",ROUND(E47/(Inputs!V26*1000),3))</f>
-        <v>1.2999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F52" s="97"/>
       <c r="G52" s="163"/>
@@ -11924,7 +11772,7 @@
       </c>
       <c r="E53" s="118">
         <f>IF(E41&lt;0,"Link not completed!",ROUND(E47*E46/(Inputs!V26*1000),3))</f>
-        <v>0.09</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F53" s="112"/>
       <c r="G53" s="167"/>
@@ -11993,8 +11841,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12245,8 +12093,8 @@
         <v>297</v>
       </c>
       <c r="B16" s="244">
-        <f>[1]Inputs!V21</f>
-        <v>559</v>
+        <f>Inputs!V21</f>
+        <v>346</v>
       </c>
       <c r="C16" s="241" t="s">
         <v>17</v>
@@ -12275,7 +12123,7 @@
       </c>
       <c r="B18" s="245">
         <f>B16-(B16*0.1)</f>
-        <v>503.1</v>
+        <v>311.39999999999998</v>
       </c>
       <c r="C18" s="241" t="s">
         <v>17</v>
@@ -12290,7 +12138,7 @@
       </c>
       <c r="B19" s="244">
         <f>(B18-(B13+B14+2*B7+2*B9))/(B9+B8+2*B7+B12+7*B15)</f>
-        <v>537.92148739669869</v>
+        <v>332.53303143504064</v>
       </c>
       <c r="C19" s="241" t="s">
         <v>264</v>
@@ -12305,7 +12153,7 @@
       </c>
       <c r="B20" s="243">
         <f>B19*7*(F3-B3)/1000000</f>
-        <v>2.9219895195388674</v>
+        <v>1.8063194267551406</v>
       </c>
       <c r="C20" s="241" t="s">
         <v>287</v>
@@ -12320,7 +12168,7 @@
       </c>
       <c r="B21" s="243">
         <f>B20/B18*1000</f>
-        <v>5.8079696273879291</v>
+        <v>5.8006404198944788</v>
       </c>
       <c r="C21" s="241" t="s">
         <v>284</v>
@@ -12463,17 +12311,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="396"/>
-      <c r="C1" s="396"/>
-      <c r="D1" s="396"/>
+      <c r="B1" s="386"/>
+      <c r="C1" s="386"/>
+      <c r="D1" s="386"/>
       <c r="E1" s="211"/>
       <c r="F1" s="211"/>
-      <c r="G1" s="386" t="s">
+      <c r="G1" s="387" t="s">
         <v>235</v>
       </c>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
+      <c r="H1" s="387"/>
+      <c r="I1" s="387"/>
+      <c r="J1" s="387"/>
       <c r="K1" s="211"/>
       <c r="L1" s="211"/>
       <c r="M1" s="211"/>
@@ -12488,17 +12336,17 @@
       <c r="Z1" s="211"/>
     </row>
     <row r="2" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="396"/>
-      <c r="C2" s="396"/>
-      <c r="D2" s="396"/>
+      <c r="B2" s="386"/>
+      <c r="C2" s="386"/>
+      <c r="D2" s="386"/>
       <c r="E2" s="211"/>
       <c r="F2" s="211"/>
-      <c r="G2" s="397" t="s">
+      <c r="G2" s="388" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="397"/>
-      <c r="I2" s="397"/>
-      <c r="J2" s="397"/>
+      <c r="H2" s="388"/>
+      <c r="I2" s="388"/>
+      <c r="J2" s="388"/>
       <c r="K2" s="211"/>
       <c r="L2" s="160" t="s">
         <v>72</v>
@@ -12647,12 +12495,12 @@
       <c r="D8" s="211"/>
       <c r="E8" s="211"/>
       <c r="F8" s="211"/>
-      <c r="G8" s="386" t="s">
+      <c r="G8" s="387" t="s">
         <v>240</v>
       </c>
-      <c r="H8" s="386"/>
-      <c r="I8" s="386"/>
-      <c r="J8" s="386"/>
+      <c r="H8" s="387"/>
+      <c r="I8" s="387"/>
+      <c r="J8" s="387"/>
       <c r="K8" s="211"/>
       <c r="L8" s="211"/>
       <c r="M8" s="211"/>
@@ -12667,12 +12515,12 @@
       <c r="D9" s="211"/>
       <c r="E9" s="211"/>
       <c r="F9" s="211"/>
-      <c r="G9" s="397" t="s">
+      <c r="G9" s="388" t="s">
         <v>236</v>
       </c>
-      <c r="H9" s="397"/>
-      <c r="I9" s="397"/>
-      <c r="J9" s="397"/>
+      <c r="H9" s="388"/>
+      <c r="I9" s="388"/>
+      <c r="J9" s="388"/>
       <c r="K9" s="211"/>
       <c r="L9" s="211"/>
       <c r="M9" s="211"/>
@@ -12734,11 +12582,11 @@
       <c r="R11"/>
     </row>
     <row r="12" spans="2:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="387" t="s">
+      <c r="B12" s="389" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="388"/>
-      <c r="D12" s="389"/>
+      <c r="C12" s="390"/>
+      <c r="D12" s="391"/>
       <c r="E12" s="211"/>
       <c r="F12" s="211"/>
       <c r="G12" s="89">
@@ -12762,11 +12610,11 @@
       <c r="R12"/>
     </row>
     <row r="13" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="390" t="s">
+      <c r="B13" s="380" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="391"/>
-      <c r="D13" s="394"/>
+      <c r="C13" s="381"/>
+      <c r="D13" s="382"/>
       <c r="E13" s="211"/>
       <c r="F13" s="211"/>
       <c r="G13" s="91">
@@ -12788,11 +12636,11 @@
       <c r="R13"/>
     </row>
     <row r="14" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="390" t="s">
+      <c r="B14" s="380" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="391"/>
-      <c r="D14" s="394"/>
+      <c r="C14" s="381"/>
+      <c r="D14" s="382"/>
       <c r="E14" s="211"/>
       <c r="F14" s="211"/>
       <c r="G14" s="211"/>
@@ -12806,11 +12654,11 @@
       <c r="R14"/>
     </row>
     <row r="15" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="392" t="s">
+      <c r="B15" s="383" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="393"/>
-      <c r="D15" s="395"/>
+      <c r="C15" s="384"/>
+      <c r="D15" s="385"/>
       <c r="E15" s="211"/>
       <c r="F15" s="211"/>
       <c r="G15" s="225" t="s">
@@ -13114,11 +12962,11 @@
       <c r="Z28" s="211"/>
     </row>
     <row r="29" spans="2:26" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="387" t="s">
+      <c r="B29" s="389" t="s">
         <v>246</v>
       </c>
-      <c r="C29" s="388"/>
-      <c r="D29" s="389"/>
+      <c r="C29" s="390"/>
+      <c r="D29" s="391"/>
       <c r="E29" s="159"/>
       <c r="F29" s="211"/>
       <c r="G29" s="95">
@@ -13145,10 +12993,10 @@
       <c r="Z29" s="211"/>
     </row>
     <row r="30" spans="2:26" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="390" t="s">
+      <c r="B30" s="380" t="s">
         <v>247</v>
       </c>
-      <c r="C30" s="391"/>
+      <c r="C30" s="381"/>
       <c r="D30" s="86">
         <f>2*(Losses!Y35*(79.76/Antennas!W13))</f>
         <v>18.990476190476191</v>
@@ -13175,10 +13023,10 @@
       <c r="Z30" s="211"/>
     </row>
     <row r="31" spans="2:26" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="390" t="s">
+      <c r="B31" s="380" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="391"/>
+      <c r="C31" s="381"/>
       <c r="D31" s="86">
         <f>10^(Losses!U54/10)</f>
         <v>1.2589254117941673</v>
@@ -13203,10 +13051,10 @@
       <c r="Z31" s="211"/>
     </row>
     <row r="32" spans="2:26" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="390" t="s">
+      <c r="B32" s="380" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="391"/>
+      <c r="C32" s="381"/>
       <c r="D32" s="86">
         <f>10^(Losses!U55/10)</f>
         <v>1.2589254117941673</v>
@@ -13231,10 +13079,10 @@
       <c r="Z32" s="211"/>
     </row>
     <row r="33" spans="2:24" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="390" t="s">
+      <c r="B33" s="380" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="391"/>
+      <c r="C33" s="381"/>
       <c r="D33" s="86">
         <f>RADIANS(Losses!U56)</f>
         <v>1.5707963267948966</v>
@@ -13249,10 +13097,10 @@
       <c r="L33" s="211"/>
     </row>
     <row r="34" spans="2:24" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="392" t="s">
+      <c r="B34" s="383" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="393"/>
+      <c r="C34" s="384"/>
       <c r="D34" s="93">
         <f>0.5*(1+((1-D31^2)*(1-D32^2)*COS(2*D33)+4*D31*D32)/((1+D31^2)*(1+D32^2)))</f>
         <v>0.94880023970254146</v>
@@ -13280,11 +13128,11 @@
       <c r="L35" s="211"/>
     </row>
     <row r="36" spans="2:24" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="387" t="s">
+      <c r="B36" s="389" t="s">
         <v>249</v>
       </c>
-      <c r="C36" s="388"/>
-      <c r="D36" s="389"/>
+      <c r="C36" s="390"/>
+      <c r="D36" s="391"/>
       <c r="E36" s="211"/>
       <c r="F36" s="211"/>
       <c r="G36" s="211"/>
@@ -13295,10 +13143,10 @@
       <c r="L36" s="211"/>
     </row>
     <row r="37" spans="2:24" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="390" t="s">
+      <c r="B37" s="380" t="s">
         <v>247</v>
       </c>
-      <c r="C37" s="391"/>
+      <c r="C37" s="381"/>
       <c r="D37" s="86">
         <f>2*(Losses!Y80*(79.76/Antennas!W13))</f>
         <v>18.990476190476191</v>
@@ -13313,10 +13161,10 @@
       <c r="L37" s="211"/>
     </row>
     <row r="38" spans="2:24" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="390" t="s">
+      <c r="B38" s="380" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="391"/>
+      <c r="C38" s="381"/>
       <c r="D38" s="86">
         <f>10^(Losses!U97/10)</f>
         <v>1.2589254117941673</v>
@@ -13331,10 +13179,10 @@
       <c r="L38" s="276"/>
     </row>
     <row r="39" spans="2:24" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="390" t="s">
+      <c r="B39" s="380" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="391"/>
+      <c r="C39" s="381"/>
       <c r="D39" s="86">
         <f>10^(Losses!U98/10)</f>
         <v>1.2589254117941673</v>
@@ -13349,10 +13197,10 @@
       <c r="L39" s="276"/>
     </row>
     <row r="40" spans="2:24" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="390" t="s">
+      <c r="B40" s="380" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="391"/>
+      <c r="C40" s="381"/>
       <c r="D40" s="86">
         <f>RADIANS(Losses!U99)</f>
         <v>1.5707963267948966</v>
@@ -13365,25 +13213,25 @@
       <c r="J40" s="276"/>
       <c r="K40" s="276"/>
       <c r="L40" s="276"/>
-      <c r="N40" s="380" t="s">
+      <c r="N40" s="392" t="s">
         <v>446</v>
       </c>
-      <c r="O40" s="381"/>
-      <c r="P40" s="381"/>
-      <c r="Q40" s="381"/>
-      <c r="R40" s="381"/>
-      <c r="S40" s="381"/>
-      <c r="T40" s="381"/>
-      <c r="U40" s="381"/>
-      <c r="V40" s="381"/>
-      <c r="W40" s="381"/>
-      <c r="X40" s="382"/>
+      <c r="O40" s="393"/>
+      <c r="P40" s="393"/>
+      <c r="Q40" s="393"/>
+      <c r="R40" s="393"/>
+      <c r="S40" s="393"/>
+      <c r="T40" s="393"/>
+      <c r="U40" s="393"/>
+      <c r="V40" s="393"/>
+      <c r="W40" s="393"/>
+      <c r="X40" s="394"/>
     </row>
     <row r="41" spans="2:24" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="392" t="s">
+      <c r="B41" s="383" t="s">
         <v>248</v>
       </c>
-      <c r="C41" s="393"/>
+      <c r="C41" s="384"/>
       <c r="D41" s="93">
         <f>0.5*(1+((1-D38^2)*(1-D39^2)*COS(2*D40)+4*D38*D39)/((1+D38^2)*(1+D39^2)))</f>
         <v>0.94880023970254146</v>
@@ -13621,8 +13469,8 @@
       </c>
     </row>
     <row r="46" spans="2:24" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="386"/>
-      <c r="C46" s="386"/>
+      <c r="B46" s="387"/>
+      <c r="C46" s="387"/>
       <c r="D46" s="211"/>
       <c r="E46" s="211"/>
       <c r="F46" s="211"/>
@@ -13645,19 +13493,19 @@
       <c r="J47" s="280"/>
       <c r="K47" s="280"/>
       <c r="L47" s="280"/>
-      <c r="N47" s="380" t="s">
+      <c r="N47" s="392" t="s">
         <v>449</v>
       </c>
-      <c r="O47" s="381"/>
-      <c r="P47" s="381"/>
-      <c r="Q47" s="381"/>
-      <c r="R47" s="381"/>
-      <c r="S47" s="381"/>
-      <c r="T47" s="381"/>
-      <c r="U47" s="381"/>
-      <c r="V47" s="381"/>
-      <c r="W47" s="381"/>
-      <c r="X47" s="382"/>
+      <c r="O47" s="393"/>
+      <c r="P47" s="393"/>
+      <c r="Q47" s="393"/>
+      <c r="R47" s="393"/>
+      <c r="S47" s="393"/>
+      <c r="T47" s="393"/>
+      <c r="U47" s="393"/>
+      <c r="V47" s="393"/>
+      <c r="W47" s="393"/>
+      <c r="X47" s="394"/>
     </row>
     <row r="48" spans="2:24" ht="14.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="212"/>
@@ -14084,15 +13932,15 @@
       <c r="G68" s="211"/>
     </row>
     <row r="71" spans="2:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="383" t="s">
+      <c r="B71" s="395" t="s">
         <v>252</v>
       </c>
-      <c r="C71" s="384"/>
-      <c r="D71" s="384"/>
-      <c r="E71" s="384"/>
-      <c r="F71" s="384"/>
-      <c r="G71" s="384"/>
-      <c r="H71" s="385"/>
+      <c r="C71" s="396"/>
+      <c r="D71" s="396"/>
+      <c r="E71" s="396"/>
+      <c r="F71" s="396"/>
+      <c r="G71" s="396"/>
+      <c r="H71" s="397"/>
     </row>
     <row r="72" spans="2:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="218" t="s">
@@ -14350,16 +14198,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
     <mergeCell ref="N40:X40"/>
     <mergeCell ref="N47:X47"/>
     <mergeCell ref="B71:H71"/>
@@ -14376,6 +14214,16 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14390,7 +14238,7 @@
   </sheetPr>
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView topLeftCell="B24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
@@ -14465,15 +14313,15 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="296" t="s">
+      <c r="R2" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="297"/>
-      <c r="T2" s="297"/>
-      <c r="U2" s="297"/>
-      <c r="V2" s="297"/>
-      <c r="W2" s="297"/>
-      <c r="X2" s="298"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="291"/>
+      <c r="U2" s="291"/>
+      <c r="V2" s="291"/>
+      <c r="W2" s="291"/>
+      <c r="X2" s="292"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -16182,7 +16030,7 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
@@ -16193,11 +16041,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="307" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
       <c r="D1" s="229"/>
       <c r="F1" s="251"/>
     </row>
@@ -16285,10 +16133,10 @@
       <c r="A10" s="250" t="s">
         <v>341</v>
       </c>
-      <c r="B10" s="326" t="s">
+      <c r="B10" s="308" t="s">
         <v>342</v>
       </c>
-      <c r="C10" s="326"/>
+      <c r="C10" s="308"/>
       <c r="D10" s="229"/>
     </row>
     <row r="11" spans="1:6" s="231" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -16320,11 +16168,11 @@
       <c r="D13" s="229"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="327" t="s">
+      <c r="A14" s="309" t="s">
         <v>343</v>
       </c>
-      <c r="B14" s="327"/>
-      <c r="C14" s="327"/>
+      <c r="B14" s="309"/>
+      <c r="C14" s="309"/>
       <c r="D14" s="229"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -16391,10 +16239,10 @@
       <c r="A21" s="253" t="s">
         <v>341</v>
       </c>
-      <c r="B21" s="328" t="s">
+      <c r="B21" s="310" t="s">
         <v>359</v>
       </c>
-      <c r="C21" s="328"/>
+      <c r="C21" s="310"/>
       <c r="D21" s="229"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -16426,11 +16274,11 @@
       <c r="D24" s="229"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="325" t="s">
+      <c r="A25" s="307" t="s">
         <v>362</v>
       </c>
-      <c r="B25" s="325"/>
-      <c r="C25" s="325"/>
+      <c r="B25" s="307"/>
+      <c r="C25" s="307"/>
       <c r="D25" s="229"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -16487,10 +16335,10 @@
       <c r="A31" s="250" t="s">
         <v>371</v>
       </c>
-      <c r="B31" s="323" t="s">
+      <c r="B31" s="305" t="s">
         <v>372</v>
       </c>
-      <c r="C31" s="324"/>
+      <c r="C31" s="306"/>
       <c r="D31" s="229"/>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -16522,22 +16370,22 @@
       <c r="D34" s="229"/>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="306" t="s">
+      <c r="A35" s="312" t="s">
         <v>375</v>
       </c>
-      <c r="B35" s="306"/>
-      <c r="C35" s="306"/>
-      <c r="D35" s="306"/>
+      <c r="B35" s="312"/>
+      <c r="C35" s="312"/>
+      <c r="D35" s="312"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="307" t="s">
+      <c r="A36" s="313" t="s">
         <v>376</v>
       </c>
-      <c r="B36" s="308"/>
-      <c r="C36" s="309" t="s">
+      <c r="B36" s="314"/>
+      <c r="C36" s="315" t="s">
         <v>377</v>
       </c>
-      <c r="D36" s="310"/>
+      <c r="D36" s="316"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="257" t="s">
@@ -16596,12 +16444,12 @@
       <c r="D42" s="260"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="311" t="s">
+      <c r="A43" s="317" t="s">
         <v>341</v>
       </c>
-      <c r="B43" s="312"/>
-      <c r="C43" s="312"/>
-      <c r="D43" s="313"/>
+      <c r="B43" s="318"/>
+      <c r="C43" s="318"/>
+      <c r="D43" s="319"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="257" t="s">
@@ -16693,27 +16541,27 @@
       <c r="A51" s="257" t="s">
         <v>431</v>
       </c>
-      <c r="B51" s="317" t="s">
+      <c r="B51" s="323" t="s">
         <v>432</v>
       </c>
-      <c r="C51" s="318"/>
-      <c r="D51" s="319"/>
+      <c r="C51" s="324"/>
+      <c r="D51" s="325"/>
     </row>
     <row r="52" spans="1:4" s="231" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="257" t="s">
         <v>434</v>
       </c>
-      <c r="B52" s="317" t="s">
+      <c r="B52" s="323" t="s">
         <v>433</v>
       </c>
-      <c r="C52" s="318"/>
-      <c r="D52" s="319"/>
+      <c r="C52" s="324"/>
+      <c r="D52" s="325"/>
     </row>
     <row r="53" spans="1:4" s="231" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="259"/>
-      <c r="B53" s="320"/>
-      <c r="C53" s="321"/>
-      <c r="D53" s="322"/>
+      <c r="B53" s="326"/>
+      <c r="C53" s="327"/>
+      <c r="D53" s="328"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="229"/>
@@ -16722,11 +16570,11 @@
       <c r="D54" s="229"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="305" t="s">
+      <c r="A55" s="311" t="s">
         <v>402</v>
       </c>
-      <c r="B55" s="305"/>
-      <c r="C55" s="305"/>
+      <c r="B55" s="311"/>
+      <c r="C55" s="311"/>
       <c r="D55" s="229"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -16822,11 +16670,11 @@
       <c r="D65" s="229"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="305" t="s">
+      <c r="A66" s="311" t="s">
         <v>418</v>
       </c>
-      <c r="B66" s="305"/>
-      <c r="C66" s="305"/>
+      <c r="B66" s="311"/>
+      <c r="C66" s="311"/>
       <c r="D66" s="229"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -16846,7 +16694,7 @@
       <c r="B68" s="264" t="s">
         <v>421</v>
       </c>
-      <c r="C68" s="314" t="s">
+      <c r="C68" s="320" t="s">
         <v>420</v>
       </c>
       <c r="D68" s="229"/>
@@ -16858,7 +16706,7 @@
       <c r="B69" s="264" t="s">
         <v>422</v>
       </c>
-      <c r="C69" s="315"/>
+      <c r="C69" s="321"/>
       <c r="D69" s="229"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -16868,7 +16716,7 @@
       <c r="B70" s="264">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C70" s="315"/>
+      <c r="C70" s="321"/>
       <c r="D70" s="229"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -16878,7 +16726,7 @@
       <c r="B71" s="264" t="s">
         <v>423</v>
       </c>
-      <c r="C71" s="315"/>
+      <c r="C71" s="321"/>
       <c r="D71" s="229"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -16888,7 +16736,7 @@
       <c r="B72" s="264" t="s">
         <v>423</v>
       </c>
-      <c r="C72" s="315"/>
+      <c r="C72" s="321"/>
       <c r="D72" s="229"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -16898,7 +16746,7 @@
       <c r="B73" s="265" t="s">
         <v>412</v>
       </c>
-      <c r="C73" s="315"/>
+      <c r="C73" s="321"/>
       <c r="D73" s="229"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -16908,7 +16756,7 @@
       <c r="B74" s="264" t="s">
         <v>425</v>
       </c>
-      <c r="C74" s="316"/>
+      <c r="C74" s="322"/>
       <c r="D74" s="229"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -16928,11 +16776,11 @@
       <c r="D76" s="229"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="305" t="s">
+      <c r="A77" s="311" t="s">
         <v>458</v>
       </c>
-      <c r="B77" s="305"/>
-      <c r="C77" s="305"/>
+      <c r="B77" s="311"/>
+      <c r="C77" s="311"/>
       <c r="D77" s="229"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -17016,11 +16864,11 @@
       <c r="D84" s="229"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="305" t="s">
+      <c r="A85" s="311" t="s">
         <v>462</v>
       </c>
-      <c r="B85" s="305"/>
-      <c r="C85" s="305"/>
+      <c r="B85" s="311"/>
+      <c r="C85" s="311"/>
       <c r="D85" s="229"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -17097,12 +16945,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:B36"/>
@@ -17115,6 +16957,12 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="A77:C77"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C22" r:id="rId1" xr:uid="{925E4311-2CEB-4202-AEAE-8AA54933D18F}"/>
@@ -17134,7 +16982,7 @@
   </sheetPr>
   <dimension ref="A1:AQ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V32" sqref="V32:W32"/>
     </sheetView>
   </sheetViews>
@@ -17168,17 +17016,17 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="296" t="s">
+      <c r="R2" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="297"/>
-      <c r="T2" s="297"/>
-      <c r="U2" s="297"/>
-      <c r="V2" s="297"/>
-      <c r="W2" s="297"/>
-      <c r="X2" s="297"/>
-      <c r="Y2" s="297"/>
-      <c r="Z2" s="298"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="291"/>
+      <c r="U2" s="291"/>
+      <c r="V2" s="291"/>
+      <c r="W2" s="291"/>
+      <c r="X2" s="291"/>
+      <c r="Y2" s="291"/>
+      <c r="Z2" s="292"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
@@ -17350,17 +17198,17 @@
       <c r="O6" s="1"/>
       <c r="P6" s="31"/>
       <c r="Q6" s="32"/>
-      <c r="R6" s="292" t="s">
+      <c r="R6" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="293"/>
-      <c r="T6" s="293"/>
-      <c r="U6" s="293"/>
-      <c r="V6" s="293"/>
-      <c r="W6" s="293"/>
-      <c r="X6" s="293"/>
-      <c r="Y6" s="293"/>
-      <c r="Z6" s="294"/>
+      <c r="S6" s="294"/>
+      <c r="T6" s="294"/>
+      <c r="U6" s="294"/>
+      <c r="V6" s="294"/>
+      <c r="W6" s="294"/>
+      <c r="X6" s="294"/>
+      <c r="Y6" s="294"/>
+      <c r="Z6" s="295"/>
       <c r="AA6" s="32"/>
       <c r="AB6" s="33"/>
       <c r="AC6" s="30"/>
@@ -17712,11 +17560,11 @@
       <c r="O14" s="1"/>
       <c r="P14" s="31"/>
       <c r="Q14" s="32"/>
-      <c r="R14" s="332" t="s">
+      <c r="R14" s="331" t="s">
         <v>41</v>
       </c>
-      <c r="S14" s="332"/>
-      <c r="T14" s="332"/>
+      <c r="S14" s="331"/>
+      <c r="T14" s="331"/>
       <c r="U14" s="131"/>
       <c r="V14" s="32"/>
       <c r="W14" s="32"/>
@@ -17759,10 +17607,10 @@
       <c r="O15" s="1"/>
       <c r="P15" s="31"/>
       <c r="Q15" s="32"/>
-      <c r="R15" s="347" t="s">
+      <c r="R15" s="332" t="s">
         <v>42</v>
       </c>
-      <c r="S15" s="347"/>
+      <c r="S15" s="332"/>
       <c r="T15" s="130">
         <v>1</v>
       </c>
@@ -17810,8 +17658,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="31"/>
       <c r="Q16" s="32"/>
-      <c r="R16" s="347"/>
-      <c r="S16" s="347"/>
+      <c r="R16" s="332"/>
+      <c r="S16" s="332"/>
       <c r="T16" s="204">
         <f>10*LOG10(T15)</f>
         <v>0</v>
@@ -17820,11 +17668,11 @@
         <v>44</v>
       </c>
       <c r="V16" s="32"/>
-      <c r="W16" s="332" t="s">
+      <c r="W16" s="331" t="s">
         <v>45</v>
       </c>
-      <c r="X16" s="332"/>
-      <c r="Y16" s="332"/>
+      <c r="X16" s="331"/>
+      <c r="Y16" s="331"/>
       <c r="Z16" s="131"/>
       <c r="AA16" s="32"/>
       <c r="AB16" s="33"/>
@@ -17862,8 +17710,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="31"/>
       <c r="Q17" s="32"/>
-      <c r="R17" s="347"/>
-      <c r="S17" s="347"/>
+      <c r="R17" s="332"/>
+      <c r="S17" s="332"/>
       <c r="T17" s="204">
         <f>T16+30</f>
         <v>30</v>
@@ -17872,10 +17720,10 @@
         <v>46</v>
       </c>
       <c r="V17" s="32"/>
-      <c r="W17" s="330" t="s">
+      <c r="W17" s="329" t="s">
         <v>47</v>
       </c>
-      <c r="X17" s="331"/>
+      <c r="X17" s="330"/>
       <c r="Y17" s="203">
         <v>2</v>
       </c>
@@ -17923,10 +17771,10 @@
       <c r="T18" s="32"/>
       <c r="U18" s="32"/>
       <c r="V18" s="32"/>
-      <c r="W18" s="330" t="s">
+      <c r="W18" s="329" t="s">
         <v>48</v>
       </c>
-      <c r="X18" s="331"/>
+      <c r="X18" s="330"/>
       <c r="Y18" s="203">
         <v>0.5</v>
       </c>
@@ -17969,17 +17817,17 @@
       <c r="O19" s="1"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="32"/>
-      <c r="R19" s="332" t="s">
+      <c r="R19" s="331" t="s">
         <v>49</v>
       </c>
-      <c r="S19" s="332"/>
-      <c r="T19" s="332"/>
+      <c r="S19" s="331"/>
+      <c r="T19" s="331"/>
       <c r="U19" s="131"/>
       <c r="V19" s="32"/>
-      <c r="W19" s="330" t="s">
+      <c r="W19" s="329" t="s">
         <v>50</v>
       </c>
-      <c r="X19" s="331"/>
+      <c r="X19" s="330"/>
       <c r="Y19" s="203">
         <v>2</v>
       </c>
@@ -18022,10 +17870,10 @@
       <c r="O20" s="1"/>
       <c r="P20" s="31"/>
       <c r="Q20" s="32"/>
-      <c r="R20" s="330" t="s">
+      <c r="R20" s="329" t="s">
         <v>51</v>
       </c>
-      <c r="S20" s="331"/>
+      <c r="S20" s="330"/>
       <c r="T20" s="203">
         <v>8.9099999999999999E-2</v>
       </c>
@@ -18033,10 +17881,10 @@
         <v>52</v>
       </c>
       <c r="V20" s="32"/>
-      <c r="W20" s="330" t="s">
+      <c r="W20" s="329" t="s">
         <v>53</v>
       </c>
-      <c r="X20" s="331"/>
+      <c r="X20" s="330"/>
       <c r="Y20" s="204">
         <f>SUM(Y17:Y19)</f>
         <v>4.5</v>
@@ -18080,10 +17928,10 @@
       <c r="O21" s="1"/>
       <c r="P21" s="31"/>
       <c r="Q21" s="32"/>
-      <c r="R21" s="330" t="s">
+      <c r="R21" s="329" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="331"/>
+      <c r="S21" s="330"/>
       <c r="T21" s="206">
         <f>T20*Y20</f>
         <v>0.40094999999999997</v>
@@ -18177,15 +18025,15 @@
       <c r="O23" s="1"/>
       <c r="P23" s="31"/>
       <c r="Q23" s="32"/>
-      <c r="R23" s="332" t="s">
+      <c r="R23" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="S23" s="332"/>
-      <c r="T23" s="332"/>
-      <c r="U23" s="332"/>
-      <c r="V23" s="332"/>
-      <c r="W23" s="332"/>
-      <c r="X23" s="332"/>
+      <c r="S23" s="331"/>
+      <c r="T23" s="331"/>
+      <c r="U23" s="331"/>
+      <c r="V23" s="331"/>
+      <c r="W23" s="331"/>
+      <c r="X23" s="331"/>
       <c r="Y23" s="131"/>
       <c r="Z23" s="131"/>
       <c r="AA23" s="32"/>
@@ -18224,17 +18072,17 @@
       <c r="O24" s="1"/>
       <c r="P24" s="31"/>
       <c r="Q24" s="32"/>
-      <c r="R24" s="330" t="s">
+      <c r="R24" s="329" t="s">
         <v>56</v>
       </c>
-      <c r="S24" s="330"/>
-      <c r="T24" s="330"/>
-      <c r="U24" s="331"/>
-      <c r="V24" s="333">
+      <c r="S24" s="329"/>
+      <c r="T24" s="329"/>
+      <c r="U24" s="330"/>
+      <c r="V24" s="334">
         <v>2</v>
       </c>
-      <c r="W24" s="333"/>
-      <c r="X24" s="333"/>
+      <c r="W24" s="334"/>
+      <c r="X24" s="334"/>
       <c r="Y24" s="32" t="s">
         <v>57</v>
       </c>
@@ -18275,12 +18123,12 @@
       <c r="O25" s="1"/>
       <c r="P25" s="31"/>
       <c r="Q25" s="32"/>
-      <c r="R25" s="330" t="s">
+      <c r="R25" s="329" t="s">
         <v>58</v>
       </c>
-      <c r="S25" s="330"/>
-      <c r="T25" s="330"/>
-      <c r="U25" s="334"/>
+      <c r="S25" s="329"/>
+      <c r="T25" s="329"/>
+      <c r="U25" s="347"/>
       <c r="V25" s="335">
         <v>0.1</v>
       </c>
@@ -18326,15 +18174,15 @@
       <c r="O26" s="1"/>
       <c r="P26" s="31"/>
       <c r="Q26" s="32"/>
-      <c r="R26" s="330" t="s">
+      <c r="R26" s="329" t="s">
         <v>59</v>
       </c>
-      <c r="S26" s="330"/>
-      <c r="T26" s="330"/>
-      <c r="U26" s="331"/>
-      <c r="V26" s="333"/>
-      <c r="W26" s="333"/>
-      <c r="X26" s="333"/>
+      <c r="S26" s="329"/>
+      <c r="T26" s="329"/>
+      <c r="U26" s="330"/>
+      <c r="V26" s="334"/>
+      <c r="W26" s="334"/>
+      <c r="X26" s="334"/>
       <c r="Y26" s="32" t="s">
         <v>38</v>
       </c>
@@ -18375,15 +18223,15 @@
       <c r="O27" s="1"/>
       <c r="P27" s="31"/>
       <c r="Q27" s="32"/>
-      <c r="R27" s="330" t="s">
+      <c r="R27" s="329" t="s">
         <v>60</v>
       </c>
-      <c r="S27" s="330"/>
-      <c r="T27" s="330"/>
-      <c r="U27" s="331"/>
-      <c r="V27" s="333"/>
-      <c r="W27" s="333"/>
-      <c r="X27" s="333"/>
+      <c r="S27" s="329"/>
+      <c r="T27" s="329"/>
+      <c r="U27" s="330"/>
+      <c r="V27" s="334"/>
+      <c r="W27" s="334"/>
+      <c r="X27" s="334"/>
       <c r="Y27" s="32" t="s">
         <v>38</v>
       </c>
@@ -18424,17 +18272,17 @@
       <c r="O28" s="1"/>
       <c r="P28" s="31"/>
       <c r="Q28" s="32"/>
-      <c r="R28" s="330" t="s">
+      <c r="R28" s="329" t="s">
         <v>61</v>
       </c>
-      <c r="S28" s="330"/>
-      <c r="T28" s="330"/>
-      <c r="U28" s="331"/>
-      <c r="V28" s="333">
+      <c r="S28" s="329"/>
+      <c r="T28" s="329"/>
+      <c r="U28" s="330"/>
+      <c r="V28" s="334">
         <v>0.17699999999999999</v>
       </c>
-      <c r="W28" s="333"/>
-      <c r="X28" s="333"/>
+      <c r="W28" s="334"/>
+      <c r="X28" s="334"/>
       <c r="Y28" s="32" t="s">
         <v>38</v>
       </c>
@@ -18522,17 +18370,17 @@
       <c r="Q30" s="32"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
-      <c r="T30" s="332" t="s">
+      <c r="T30" s="331" t="s">
         <v>62</v>
       </c>
-      <c r="U30" s="332"/>
-      <c r="V30" s="332"/>
-      <c r="W30" s="332"/>
+      <c r="U30" s="331"/>
+      <c r="V30" s="331"/>
+      <c r="W30" s="331"/>
       <c r="X30" s="131"/>
       <c r="Y30" s="32"/>
       <c r="Z30" s="32"/>
-      <c r="AA30" s="330"/>
-      <c r="AB30" s="331"/>
+      <c r="AA30" s="329"/>
+      <c r="AB30" s="330"/>
       <c r="AC30" s="30"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
@@ -18569,10 +18417,10 @@
       <c r="Q31" s="32"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
-      <c r="T31" s="330" t="s">
+      <c r="T31" s="329" t="s">
         <v>63</v>
       </c>
-      <c r="U31" s="331"/>
+      <c r="U31" s="330"/>
       <c r="V31" s="335">
         <f>T21+SUM(V26:X28)+V24*V25</f>
         <v>0.77794999999999992</v>
@@ -18621,15 +18469,15 @@
       <c r="Q32" s="32"/>
       <c r="R32" s="32"/>
       <c r="S32" s="32"/>
-      <c r="T32" s="330" t="s">
+      <c r="T32" s="329" t="s">
         <v>64</v>
       </c>
-      <c r="U32" s="331"/>
+      <c r="U32" s="330"/>
       <c r="V32" s="335">
         <f>T16-V31</f>
         <v>-0.77794999999999992</v>
       </c>
-      <c r="W32" s="345"/>
+      <c r="W32" s="337"/>
       <c r="X32" s="32" t="s">
         <v>44</v>
       </c>
@@ -18943,17 +18791,17 @@
       <c r="O39" s="1"/>
       <c r="P39" s="40"/>
       <c r="Q39" s="41"/>
-      <c r="R39" s="292" t="s">
+      <c r="R39" s="293" t="s">
         <v>66</v>
       </c>
-      <c r="S39" s="293"/>
-      <c r="T39" s="293"/>
-      <c r="U39" s="293"/>
-      <c r="V39" s="293"/>
-      <c r="W39" s="293"/>
-      <c r="X39" s="293"/>
-      <c r="Y39" s="293"/>
-      <c r="Z39" s="294"/>
+      <c r="S39" s="294"/>
+      <c r="T39" s="294"/>
+      <c r="U39" s="294"/>
+      <c r="V39" s="294"/>
+      <c r="W39" s="294"/>
+      <c r="X39" s="294"/>
+      <c r="Y39" s="294"/>
+      <c r="Z39" s="295"/>
       <c r="AA39" s="41"/>
       <c r="AB39" s="42"/>
       <c r="AC39" s="30"/>
@@ -19305,11 +19153,11 @@
       <c r="O47" s="1"/>
       <c r="P47" s="40"/>
       <c r="Q47" s="41"/>
-      <c r="R47" s="329" t="s">
+      <c r="R47" s="333" t="s">
         <v>41</v>
       </c>
-      <c r="S47" s="329"/>
-      <c r="T47" s="329"/>
+      <c r="S47" s="333"/>
+      <c r="T47" s="333"/>
       <c r="U47" s="143"/>
       <c r="V47" s="41"/>
       <c r="W47" s="41"/>
@@ -19352,10 +19200,10 @@
       <c r="O48" s="1"/>
       <c r="P48" s="40"/>
       <c r="Q48" s="41"/>
-      <c r="R48" s="346" t="s">
+      <c r="R48" s="338" t="s">
         <v>42</v>
       </c>
-      <c r="S48" s="346"/>
+      <c r="S48" s="338"/>
       <c r="T48" s="145">
         <v>1</v>
       </c>
@@ -19403,8 +19251,8 @@
       <c r="O49" s="1"/>
       <c r="P49" s="40"/>
       <c r="Q49" s="41"/>
-      <c r="R49" s="346"/>
-      <c r="S49" s="346"/>
+      <c r="R49" s="338"/>
+      <c r="S49" s="338"/>
       <c r="T49" s="204">
         <f>10*LOG10(T48)</f>
         <v>0</v>
@@ -19413,11 +19261,11 @@
         <v>44</v>
       </c>
       <c r="V49" s="41"/>
-      <c r="W49" s="329" t="s">
+      <c r="W49" s="333" t="s">
         <v>45</v>
       </c>
-      <c r="X49" s="329"/>
-      <c r="Y49" s="329"/>
+      <c r="X49" s="333"/>
+      <c r="Y49" s="333"/>
       <c r="Z49" s="41"/>
       <c r="AA49" s="41"/>
       <c r="AB49" s="42"/>
@@ -19455,8 +19303,8 @@
       <c r="O50" s="1"/>
       <c r="P50" s="40"/>
       <c r="Q50" s="41"/>
-      <c r="R50" s="346"/>
-      <c r="S50" s="346"/>
+      <c r="R50" s="338"/>
+      <c r="S50" s="338"/>
       <c r="T50" s="204">
         <f>T49+30</f>
         <v>30</v>
@@ -19560,11 +19408,11 @@
       <c r="O52" s="1"/>
       <c r="P52" s="40"/>
       <c r="Q52" s="41"/>
-      <c r="R52" s="329" t="s">
+      <c r="R52" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="S52" s="329"/>
-      <c r="T52" s="329"/>
+      <c r="S52" s="333"/>
+      <c r="T52" s="333"/>
       <c r="U52" s="143"/>
       <c r="V52" s="41"/>
       <c r="W52" s="336" t="s">
@@ -19766,15 +19614,15 @@
       <c r="O56" s="1"/>
       <c r="P56" s="40"/>
       <c r="Q56" s="41"/>
-      <c r="R56" s="329" t="s">
+      <c r="R56" s="333" t="s">
         <v>55</v>
       </c>
-      <c r="S56" s="329"/>
-      <c r="T56" s="329"/>
-      <c r="U56" s="329"/>
-      <c r="V56" s="329"/>
-      <c r="W56" s="329"/>
-      <c r="X56" s="329"/>
+      <c r="S56" s="333"/>
+      <c r="T56" s="333"/>
+      <c r="U56" s="333"/>
+      <c r="V56" s="333"/>
+      <c r="W56" s="333"/>
+      <c r="X56" s="333"/>
       <c r="Y56" s="143"/>
       <c r="Z56" s="143"/>
       <c r="AA56" s="41"/>
@@ -20116,13 +19964,13 @@
       <c r="Q63" s="41"/>
       <c r="R63" s="41"/>
       <c r="S63" s="41"/>
-      <c r="T63" s="329" t="s">
+      <c r="T63" s="333" t="s">
         <v>62</v>
       </c>
-      <c r="U63" s="329"/>
-      <c r="V63" s="329"/>
-      <c r="W63" s="329"/>
-      <c r="X63" s="329"/>
+      <c r="U63" s="333"/>
+      <c r="V63" s="333"/>
+      <c r="W63" s="333"/>
+      <c r="X63" s="333"/>
       <c r="Y63" s="41"/>
       <c r="Z63" s="41"/>
       <c r="AA63" s="41"/>
@@ -20167,11 +20015,11 @@
         <v>63</v>
       </c>
       <c r="U64" s="336"/>
-      <c r="V64" s="337">
+      <c r="V64" s="345">
         <f>T54+SUM(V59:X61)+V57*V58</f>
         <v>0.41500000000000004</v>
       </c>
-      <c r="W64" s="338"/>
+      <c r="W64" s="346"/>
       <c r="X64" s="41" t="s">
         <v>38</v>
       </c>
@@ -20219,11 +20067,11 @@
         <v>64</v>
       </c>
       <c r="U65" s="336"/>
-      <c r="V65" s="337">
+      <c r="V65" s="345">
         <f>T49-V64</f>
         <v>-0.41500000000000004</v>
       </c>
-      <c r="W65" s="338"/>
+      <c r="W65" s="346"/>
       <c r="X65" s="41" t="s">
         <v>44</v>
       </c>
@@ -20384,18 +20232,34 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R2:Z2"/>
-    <mergeCell ref="R6:Z6"/>
-    <mergeCell ref="R15:S17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="R23:X23"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="T63:X63"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="R59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="R60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="R58:U58"/>
+    <mergeCell ref="V58:X58"/>
     <mergeCell ref="R56:X56"/>
     <mergeCell ref="R28:U28"/>
     <mergeCell ref="V28:X28"/>
@@ -20412,34 +20276,18 @@
     <mergeCell ref="R53:S53"/>
     <mergeCell ref="W53:X53"/>
     <mergeCell ref="R52:T52"/>
-    <mergeCell ref="R59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="R60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="R58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="T63:X63"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="R23:X23"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="R2:Z2"/>
+    <mergeCell ref="R6:Z6"/>
+    <mergeCell ref="R15:S17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R19:T19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20455,7 +20303,7 @@
   </sheetPr>
   <dimension ref="A1:AX58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
@@ -20544,15 +20392,15 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="296" t="s">
+      <c r="R2" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="297"/>
-      <c r="T2" s="297"/>
-      <c r="U2" s="297"/>
-      <c r="V2" s="297"/>
-      <c r="W2" s="297"/>
-      <c r="X2" s="297"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="291"/>
+      <c r="U2" s="291"/>
+      <c r="V2" s="291"/>
+      <c r="W2" s="291"/>
+      <c r="X2" s="291"/>
       <c r="Y2" s="185"/>
       <c r="Z2" s="186"/>
       <c r="AA2" s="186"/>
@@ -20758,15 +20606,15 @@
       <c r="O6" s="1"/>
       <c r="P6" s="31"/>
       <c r="Q6" s="32"/>
-      <c r="R6" s="292" t="s">
+      <c r="R6" s="293" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="293"/>
-      <c r="T6" s="293"/>
-      <c r="U6" s="293"/>
-      <c r="V6" s="293"/>
-      <c r="W6" s="293"/>
-      <c r="X6" s="294"/>
+      <c r="S6" s="294"/>
+      <c r="T6" s="294"/>
+      <c r="U6" s="294"/>
+      <c r="V6" s="294"/>
+      <c r="W6" s="294"/>
+      <c r="X6" s="295"/>
       <c r="Y6" s="31"/>
       <c r="Z6" s="33"/>
       <c r="AA6" s="180"/>
@@ -20864,10 +20712,10 @@
       <c r="O8" s="1"/>
       <c r="P8" s="31"/>
       <c r="Q8" s="32"/>
-      <c r="R8" s="330" t="s">
+      <c r="R8" s="329" t="s">
         <v>11</v>
       </c>
-      <c r="S8" s="330"/>
+      <c r="S8" s="329"/>
       <c r="T8" s="181">
         <f>Inputs!V15</f>
         <v>437.30500000000001</v>
@@ -20923,10 +20771,10 @@
       <c r="O9" s="1"/>
       <c r="P9" s="31"/>
       <c r="Q9" s="32"/>
-      <c r="R9" s="330" t="s">
+      <c r="R9" s="329" t="s">
         <v>69</v>
       </c>
-      <c r="S9" s="330"/>
+      <c r="S9" s="329"/>
       <c r="T9" s="184">
         <f>Orbit!V27</f>
         <v>0.68554546140565509</v>
@@ -21034,10 +20882,10 @@
       <c r="O11" s="1"/>
       <c r="P11" s="31"/>
       <c r="Q11" s="32"/>
-      <c r="R11" s="330" t="s">
+      <c r="R11" s="329" t="s">
         <v>70</v>
       </c>
-      <c r="S11" s="330"/>
+      <c r="S11" s="329"/>
       <c r="T11" s="181" t="s">
         <v>71</v>
       </c>
@@ -21090,10 +20938,10 @@
       <c r="O12" s="1"/>
       <c r="P12" s="31"/>
       <c r="Q12" s="32"/>
-      <c r="R12" s="330" t="s">
+      <c r="R12" s="329" t="s">
         <v>72</v>
       </c>
-      <c r="S12" s="330"/>
+      <c r="S12" s="329"/>
       <c r="T12" s="148" t="s">
         <v>73</v>
       </c>
@@ -21152,10 +21000,10 @@
       <c r="O13" s="1"/>
       <c r="P13" s="31"/>
       <c r="Q13" s="32"/>
-      <c r="R13" s="330" t="s">
+      <c r="R13" s="329" t="s">
         <v>76</v>
       </c>
-      <c r="S13" s="330"/>
+      <c r="S13" s="329"/>
       <c r="T13" s="183">
         <v>3</v>
       </c>
@@ -21268,15 +21116,15 @@
       <c r="O15" s="1"/>
       <c r="P15" s="31"/>
       <c r="Q15" s="32"/>
-      <c r="R15" s="292" t="s">
+      <c r="R15" s="293" t="s">
         <v>78</v>
       </c>
-      <c r="S15" s="293"/>
-      <c r="T15" s="293"/>
-      <c r="U15" s="293"/>
-      <c r="V15" s="293"/>
-      <c r="W15" s="293"/>
-      <c r="X15" s="294"/>
+      <c r="S15" s="294"/>
+      <c r="T15" s="294"/>
+      <c r="U15" s="294"/>
+      <c r="V15" s="294"/>
+      <c r="W15" s="294"/>
+      <c r="X15" s="295"/>
       <c r="Y15" s="31"/>
       <c r="Z15" s="33"/>
       <c r="AA15" s="180"/>
@@ -21374,10 +21222,10 @@
       <c r="O17" s="1"/>
       <c r="P17" s="31"/>
       <c r="Q17" s="32"/>
-      <c r="R17" s="330" t="s">
+      <c r="R17" s="329" t="s">
         <v>11</v>
       </c>
-      <c r="S17" s="330"/>
+      <c r="S17" s="329"/>
       <c r="T17" s="181">
         <f>Inputs!V15</f>
         <v>437.30500000000001</v>
@@ -21433,10 +21281,10 @@
       <c r="O18" s="1"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="32"/>
-      <c r="R18" s="330" t="s">
+      <c r="R18" s="329" t="s">
         <v>69</v>
       </c>
-      <c r="S18" s="330"/>
+      <c r="S18" s="329"/>
       <c r="T18" s="184">
         <f>Orbit!V28</f>
         <v>0.68554546140565509</v>
@@ -21544,10 +21392,10 @@
       <c r="O20" s="1"/>
       <c r="P20" s="31"/>
       <c r="Q20" s="32"/>
-      <c r="R20" s="330" t="s">
+      <c r="R20" s="329" t="s">
         <v>70</v>
       </c>
-      <c r="S20" s="330"/>
+      <c r="S20" s="329"/>
       <c r="T20" s="181" t="s">
         <v>79</v>
       </c>
@@ -21600,10 +21448,10 @@
       <c r="O21" s="1"/>
       <c r="P21" s="31"/>
       <c r="Q21" s="32"/>
-      <c r="R21" s="330" t="s">
+      <c r="R21" s="329" t="s">
         <v>72</v>
       </c>
-      <c r="S21" s="330"/>
+      <c r="S21" s="329"/>
       <c r="T21" s="148" t="s">
         <v>73</v>
       </c>
@@ -21662,8 +21510,8 @@
       <c r="O22" s="1"/>
       <c r="P22" s="31"/>
       <c r="Q22" s="32"/>
-      <c r="R22" s="330"/>
-      <c r="S22" s="330"/>
+      <c r="R22" s="329"/>
+      <c r="S22" s="329"/>
       <c r="T22" s="179"/>
       <c r="U22" s="32"/>
       <c r="V22" s="202" t="s">
@@ -22032,15 +21880,15 @@
       <c r="O29" s="1"/>
       <c r="P29" s="40"/>
       <c r="Q29" s="41"/>
-      <c r="R29" s="292" t="s">
+      <c r="R29" s="293" t="s">
         <v>80</v>
       </c>
-      <c r="S29" s="293"/>
-      <c r="T29" s="293"/>
-      <c r="U29" s="293"/>
-      <c r="V29" s="293"/>
-      <c r="W29" s="293"/>
-      <c r="X29" s="294"/>
+      <c r="S29" s="294"/>
+      <c r="T29" s="294"/>
+      <c r="U29" s="294"/>
+      <c r="V29" s="294"/>
+      <c r="W29" s="294"/>
+      <c r="X29" s="295"/>
       <c r="Y29" s="40"/>
       <c r="Z29" s="42"/>
       <c r="AA29" s="180"/>
@@ -22431,15 +22279,15 @@
       <c r="O36" s="1"/>
       <c r="P36" s="40"/>
       <c r="Q36" s="41"/>
-      <c r="R36" s="292" t="s">
+      <c r="R36" s="293" t="s">
         <v>81</v>
       </c>
-      <c r="S36" s="293"/>
-      <c r="T36" s="293"/>
-      <c r="U36" s="293"/>
-      <c r="V36" s="293"/>
-      <c r="W36" s="293"/>
-      <c r="X36" s="294"/>
+      <c r="S36" s="294"/>
+      <c r="T36" s="294"/>
+      <c r="U36" s="294"/>
+      <c r="V36" s="294"/>
+      <c r="W36" s="294"/>
+      <c r="X36" s="295"/>
       <c r="Y36" s="40"/>
       <c r="Z36" s="42"/>
       <c r="AA36" s="180"/>
@@ -23135,6 +22983,14 @@
     <row r="58" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R6:X6"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R15:X15"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
     <mergeCell ref="R38:S38"/>
     <mergeCell ref="R39:S39"/>
     <mergeCell ref="R11:S11"/>
@@ -23146,14 +23002,6 @@
     <mergeCell ref="R29:X29"/>
     <mergeCell ref="R36:X36"/>
     <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R6:X6"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R15:X15"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <conditionalFormatting sqref="W12:W13">
     <cfRule type="expression" dxfId="53" priority="21">
@@ -23225,8 +23073,8 @@
   </sheetPr>
   <dimension ref="A1:AQ91"/>
   <sheetViews>
-    <sheetView topLeftCell="L70" zoomScale="104" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="Z67" sqref="Z67"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.7" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -23302,17 +23150,17 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="296" t="s">
+      <c r="R2" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="297"/>
-      <c r="T2" s="297"/>
-      <c r="U2" s="297"/>
-      <c r="V2" s="297"/>
-      <c r="W2" s="297"/>
-      <c r="X2" s="297"/>
-      <c r="Y2" s="297"/>
-      <c r="Z2" s="298"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="291"/>
+      <c r="U2" s="291"/>
+      <c r="V2" s="291"/>
+      <c r="W2" s="291"/>
+      <c r="X2" s="291"/>
+      <c r="Y2" s="291"/>
+      <c r="Z2" s="292"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
@@ -23484,17 +23332,17 @@
       <c r="O6" s="1"/>
       <c r="P6" s="31"/>
       <c r="Q6" s="32"/>
-      <c r="R6" s="292" t="s">
+      <c r="R6" s="293" t="s">
         <v>84</v>
       </c>
-      <c r="S6" s="293"/>
-      <c r="T6" s="293"/>
-      <c r="U6" s="293"/>
-      <c r="V6" s="293"/>
-      <c r="W6" s="293"/>
-      <c r="X6" s="293"/>
-      <c r="Y6" s="293"/>
-      <c r="Z6" s="294"/>
+      <c r="S6" s="294"/>
+      <c r="T6" s="294"/>
+      <c r="U6" s="294"/>
+      <c r="V6" s="294"/>
+      <c r="W6" s="294"/>
+      <c r="X6" s="294"/>
+      <c r="Y6" s="294"/>
+      <c r="Z6" s="295"/>
       <c r="AA6" s="32"/>
       <c r="AB6" s="33"/>
       <c r="AC6" s="1"/>
@@ -24071,18 +23919,18 @@
       <c r="O19" s="1"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="32"/>
-      <c r="R19" s="332" t="s">
+      <c r="R19" s="331" t="s">
         <v>85</v>
       </c>
-      <c r="S19" s="332"/>
-      <c r="T19" s="332"/>
+      <c r="S19" s="331"/>
+      <c r="T19" s="331"/>
       <c r="U19" s="131"/>
       <c r="V19" s="32"/>
-      <c r="W19" s="332" t="s">
+      <c r="W19" s="331" t="s">
         <v>86</v>
       </c>
-      <c r="X19" s="332"/>
-      <c r="Y19" s="332"/>
+      <c r="X19" s="331"/>
+      <c r="Y19" s="331"/>
       <c r="Z19" s="131"/>
       <c r="AA19" s="32"/>
       <c r="AB19" s="33"/>
@@ -24120,19 +23968,19 @@
       <c r="O20" s="1"/>
       <c r="P20" s="31"/>
       <c r="Q20" s="32"/>
-      <c r="R20" s="330" t="s">
+      <c r="R20" s="329" t="s">
         <v>51</v>
       </c>
-      <c r="S20" s="331"/>
+      <c r="S20" s="330"/>
       <c r="T20" s="148"/>
       <c r="U20" s="32" t="s">
         <v>52</v>
       </c>
       <c r="V20" s="32"/>
-      <c r="W20" s="330" t="s">
+      <c r="W20" s="329" t="s">
         <v>47</v>
       </c>
-      <c r="X20" s="331"/>
+      <c r="X20" s="330"/>
       <c r="Y20" s="203"/>
       <c r="Z20" s="32" t="s">
         <v>32</v>
@@ -24173,10 +24021,10 @@
       <c r="O21" s="1"/>
       <c r="P21" s="31"/>
       <c r="Q21" s="32"/>
-      <c r="R21" s="330" t="s">
+      <c r="R21" s="329" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="334"/>
+      <c r="S21" s="347"/>
       <c r="T21" s="147">
         <v>0.2</v>
       </c>
@@ -24184,10 +24032,10 @@
         <v>38</v>
       </c>
       <c r="V21" s="32"/>
-      <c r="W21" s="330" t="s">
+      <c r="W21" s="329" t="s">
         <v>48</v>
       </c>
-      <c r="X21" s="331"/>
+      <c r="X21" s="330"/>
       <c r="Y21" s="203"/>
       <c r="Z21" s="32" t="s">
         <v>32</v>
@@ -24233,10 +24081,10 @@
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
       <c r="V22" s="32"/>
-      <c r="W22" s="330" t="s">
+      <c r="W22" s="329" t="s">
         <v>50</v>
       </c>
-      <c r="X22" s="331"/>
+      <c r="X22" s="330"/>
       <c r="Y22" s="203"/>
       <c r="Z22" s="32" t="s">
         <v>32</v>
@@ -24282,10 +24130,10 @@
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
       <c r="V23" s="32"/>
-      <c r="W23" s="330" t="s">
+      <c r="W23" s="329" t="s">
         <v>53</v>
       </c>
-      <c r="X23" s="334"/>
+      <c r="X23" s="347"/>
       <c r="Y23" s="206">
         <f>SUM(Y20:Y22)</f>
         <v>0</v>
@@ -24374,15 +24222,15 @@
       <c r="O25" s="1"/>
       <c r="P25" s="31"/>
       <c r="Q25" s="32"/>
-      <c r="R25" s="332" t="s">
+      <c r="R25" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="S25" s="332"/>
-      <c r="T25" s="332"/>
-      <c r="U25" s="332"/>
-      <c r="V25" s="332"/>
-      <c r="W25" s="332"/>
-      <c r="X25" s="332"/>
+      <c r="S25" s="331"/>
+      <c r="T25" s="331"/>
+      <c r="U25" s="331"/>
+      <c r="V25" s="331"/>
+      <c r="W25" s="331"/>
+      <c r="X25" s="331"/>
       <c r="Y25" s="131"/>
       <c r="Z25" s="131"/>
       <c r="AA25" s="32"/>
@@ -24421,15 +24269,15 @@
       <c r="O26" s="1"/>
       <c r="P26" s="31"/>
       <c r="Q26" s="32"/>
-      <c r="R26" s="330" t="s">
+      <c r="R26" s="329" t="s">
         <v>56</v>
       </c>
-      <c r="S26" s="330"/>
-      <c r="T26" s="330"/>
-      <c r="U26" s="331"/>
-      <c r="V26" s="333"/>
-      <c r="W26" s="333"/>
-      <c r="X26" s="333"/>
+      <c r="S26" s="329"/>
+      <c r="T26" s="329"/>
+      <c r="U26" s="330"/>
+      <c r="V26" s="334"/>
+      <c r="W26" s="334"/>
+      <c r="X26" s="334"/>
       <c r="Y26" s="32"/>
       <c r="Z26" s="32"/>
       <c r="AA26" s="32"/>
@@ -24468,17 +24316,17 @@
       <c r="O27" s="1"/>
       <c r="P27" s="31"/>
       <c r="Q27" s="32"/>
-      <c r="R27" s="330" t="s">
+      <c r="R27" s="329" t="s">
         <v>58</v>
       </c>
-      <c r="S27" s="330"/>
-      <c r="T27" s="330"/>
-      <c r="U27" s="334"/>
-      <c r="V27" s="345">
+      <c r="S27" s="329"/>
+      <c r="T27" s="329"/>
+      <c r="U27" s="347"/>
+      <c r="V27" s="337">
         <v>0.2</v>
       </c>
-      <c r="W27" s="345"/>
-      <c r="X27" s="345"/>
+      <c r="W27" s="337"/>
+      <c r="X27" s="337"/>
       <c r="Y27" s="32" t="s">
         <v>38</v>
       </c>
@@ -24519,15 +24367,15 @@
       <c r="O28" s="1"/>
       <c r="P28" s="31"/>
       <c r="Q28" s="32"/>
-      <c r="R28" s="330" t="s">
+      <c r="R28" s="329" t="s">
         <v>87</v>
       </c>
-      <c r="S28" s="330"/>
-      <c r="T28" s="330"/>
-      <c r="U28" s="331"/>
-      <c r="V28" s="333"/>
-      <c r="W28" s="333"/>
-      <c r="X28" s="333"/>
+      <c r="S28" s="329"/>
+      <c r="T28" s="329"/>
+      <c r="U28" s="330"/>
+      <c r="V28" s="334"/>
+      <c r="W28" s="334"/>
+      <c r="X28" s="334"/>
       <c r="Y28" s="32" t="s">
         <v>38</v>
       </c>
@@ -24568,15 +24416,15 @@
       <c r="O29" s="1"/>
       <c r="P29" s="31"/>
       <c r="Q29" s="32"/>
-      <c r="R29" s="330" t="s">
+      <c r="R29" s="329" t="s">
         <v>60</v>
       </c>
-      <c r="S29" s="330"/>
-      <c r="T29" s="330"/>
-      <c r="U29" s="331"/>
-      <c r="V29" s="333"/>
-      <c r="W29" s="333"/>
-      <c r="X29" s="333"/>
+      <c r="S29" s="329"/>
+      <c r="T29" s="329"/>
+      <c r="U29" s="330"/>
+      <c r="V29" s="334"/>
+      <c r="W29" s="334"/>
+      <c r="X29" s="334"/>
       <c r="Y29" s="32" t="s">
         <v>38</v>
       </c>
@@ -24664,12 +24512,12 @@
       <c r="Q31" s="32"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
-      <c r="T31" s="332" t="s">
+      <c r="T31" s="331" t="s">
         <v>88</v>
       </c>
-      <c r="U31" s="332"/>
-      <c r="V31" s="332"/>
-      <c r="W31" s="332"/>
+      <c r="U31" s="331"/>
+      <c r="V31" s="331"/>
+      <c r="W31" s="331"/>
       <c r="X31" s="131"/>
       <c r="Y31" s="32"/>
       <c r="Z31" s="32"/>
@@ -24711,15 +24559,15 @@
       <c r="Q32" s="32"/>
       <c r="R32" s="32"/>
       <c r="S32" s="32"/>
-      <c r="T32" s="356" t="s">
+      <c r="T32" s="353" t="s">
         <v>63</v>
       </c>
-      <c r="U32" s="357"/>
-      <c r="V32" s="345">
+      <c r="U32" s="354"/>
+      <c r="V32" s="337">
         <f>T21+SUM(V27:X29)</f>
         <v>0.4</v>
       </c>
-      <c r="W32" s="345"/>
+      <c r="W32" s="337"/>
       <c r="X32" s="32" t="s">
         <v>38</v>
       </c>
@@ -24806,15 +24654,15 @@
       <c r="O34" s="1"/>
       <c r="P34" s="31"/>
       <c r="Q34" s="32"/>
-      <c r="R34" s="355" t="s">
+      <c r="R34" s="352" t="s">
         <v>89</v>
       </c>
-      <c r="S34" s="355"/>
-      <c r="T34" s="355"/>
-      <c r="U34" s="355"/>
-      <c r="V34" s="355"/>
-      <c r="W34" s="355"/>
-      <c r="X34" s="355"/>
+      <c r="S34" s="352"/>
+      <c r="T34" s="352"/>
+      <c r="U34" s="352"/>
+      <c r="V34" s="352"/>
+      <c r="W34" s="352"/>
+      <c r="X34" s="352"/>
       <c r="Y34" s="150"/>
       <c r="Z34" s="150"/>
       <c r="AA34" s="32"/>
@@ -24853,11 +24701,11 @@
       <c r="O35" s="1"/>
       <c r="P35" s="31"/>
       <c r="Q35" s="32"/>
-      <c r="R35" s="330" t="s">
+      <c r="R35" s="329" t="s">
         <v>90</v>
       </c>
-      <c r="S35" s="330"/>
-      <c r="T35" s="330"/>
+      <c r="S35" s="329"/>
+      <c r="T35" s="329"/>
       <c r="U35" s="149" t="s">
         <v>91</v>
       </c>
@@ -24905,20 +24753,20 @@
       <c r="O36" s="1"/>
       <c r="P36" s="31"/>
       <c r="Q36" s="32"/>
-      <c r="R36" s="330" t="s">
+      <c r="R36" s="329" t="s">
         <v>92</v>
       </c>
-      <c r="S36" s="330"/>
-      <c r="T36" s="330"/>
+      <c r="S36" s="329"/>
+      <c r="T36" s="329"/>
       <c r="U36" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="V36" s="333">
+      <c r="V36" s="334">
         <f>300*0.5+0.5*50</f>
         <v>175</v>
       </c>
-      <c r="W36" s="333"/>
-      <c r="X36" s="333"/>
+      <c r="W36" s="334"/>
+      <c r="X36" s="334"/>
       <c r="Y36" s="32" t="s">
         <v>94</v>
       </c>
@@ -24959,19 +24807,19 @@
       <c r="O37" s="1"/>
       <c r="P37" s="31"/>
       <c r="Q37" s="32"/>
-      <c r="R37" s="330" t="s">
+      <c r="R37" s="329" t="s">
         <v>95</v>
       </c>
-      <c r="S37" s="330"/>
-      <c r="T37" s="330"/>
+      <c r="S37" s="329"/>
+      <c r="T37" s="329"/>
       <c r="U37" s="202" t="s">
         <v>96</v>
       </c>
-      <c r="V37" s="333">
+      <c r="V37" s="334">
         <v>290</v>
       </c>
-      <c r="W37" s="333"/>
-      <c r="X37" s="333"/>
+      <c r="W37" s="334"/>
+      <c r="X37" s="334"/>
       <c r="Y37" s="32" t="s">
         <v>94</v>
       </c>
@@ -25012,20 +24860,20 @@
       <c r="O38" s="1"/>
       <c r="P38" s="31"/>
       <c r="Q38" s="32"/>
-      <c r="R38" s="330" t="s">
+      <c r="R38" s="329" t="s">
         <v>97</v>
       </c>
-      <c r="S38" s="330"/>
-      <c r="T38" s="330"/>
+      <c r="S38" s="329"/>
+      <c r="T38" s="329"/>
       <c r="U38" s="202" t="s">
         <v>98</v>
       </c>
-      <c r="V38" s="333">
+      <c r="V38" s="334">
         <f>290*(1.5-1)</f>
         <v>145</v>
       </c>
-      <c r="W38" s="333"/>
-      <c r="X38" s="333"/>
+      <c r="W38" s="334"/>
+      <c r="X38" s="334"/>
       <c r="Y38" s="32" t="s">
         <v>94</v>
       </c>
@@ -25066,19 +24914,19 @@
       <c r="O39" s="1"/>
       <c r="P39" s="31"/>
       <c r="Q39" s="32"/>
-      <c r="R39" s="347" t="s">
+      <c r="R39" s="332" t="s">
         <v>99</v>
       </c>
-      <c r="S39" s="347"/>
-      <c r="T39" s="347"/>
-      <c r="U39" s="347" t="s">
+      <c r="S39" s="332"/>
+      <c r="T39" s="332"/>
+      <c r="U39" s="332" t="s">
         <v>100</v>
       </c>
-      <c r="V39" s="358">
+      <c r="V39" s="348">
         <v>23</v>
       </c>
-      <c r="W39" s="358"/>
-      <c r="X39" s="358"/>
+      <c r="W39" s="348"/>
+      <c r="X39" s="348"/>
       <c r="Y39" s="32" t="s">
         <v>38</v>
       </c>
@@ -25119,16 +24967,16 @@
       <c r="O40" s="1"/>
       <c r="P40" s="31"/>
       <c r="Q40" s="32"/>
-      <c r="R40" s="347"/>
-      <c r="S40" s="347"/>
-      <c r="T40" s="347"/>
-      <c r="U40" s="347"/>
-      <c r="V40" s="359">
+      <c r="R40" s="332"/>
+      <c r="S40" s="332"/>
+      <c r="T40" s="332"/>
+      <c r="U40" s="332"/>
+      <c r="V40" s="349">
         <f>10^(V39/10)</f>
         <v>199.52623149688802</v>
       </c>
-      <c r="W40" s="359"/>
-      <c r="X40" s="359"/>
+      <c r="W40" s="349"/>
+      <c r="X40" s="349"/>
       <c r="Y40" s="32" t="s">
         <v>101</v>
       </c>
@@ -25169,19 +25017,19 @@
       <c r="O41" s="1"/>
       <c r="P41" s="31"/>
       <c r="Q41" s="32"/>
-      <c r="R41" s="330" t="s">
+      <c r="R41" s="329" t="s">
         <v>102</v>
       </c>
-      <c r="S41" s="330"/>
-      <c r="T41" s="330"/>
+      <c r="S41" s="329"/>
+      <c r="T41" s="329"/>
       <c r="U41" s="202" t="s">
         <v>103</v>
       </c>
-      <c r="V41" s="358">
+      <c r="V41" s="348">
         <v>500</v>
       </c>
-      <c r="W41" s="358"/>
-      <c r="X41" s="358"/>
+      <c r="W41" s="348"/>
+      <c r="X41" s="348"/>
       <c r="Y41" s="32" t="s">
         <v>94</v>
       </c>
@@ -25222,20 +25070,20 @@
       <c r="O42" s="1"/>
       <c r="P42" s="31"/>
       <c r="Q42" s="32"/>
-      <c r="R42" s="360" t="s">
+      <c r="R42" s="350" t="s">
         <v>268</v>
       </c>
-      <c r="S42" s="330"/>
-      <c r="T42" s="330"/>
+      <c r="S42" s="329"/>
+      <c r="T42" s="329"/>
       <c r="U42" s="202" t="s">
         <v>105</v>
       </c>
-      <c r="V42" s="361">
+      <c r="V42" s="351">
         <f>V36*V35+V37*(1-V35)+V38+(V41/V40)</f>
         <v>332.62468964220676</v>
       </c>
-      <c r="W42" s="361"/>
-      <c r="X42" s="361"/>
+      <c r="W42" s="351"/>
+      <c r="X42" s="351"/>
       <c r="Y42" s="32" t="s">
         <v>94</v>
       </c>
@@ -25280,9 +25128,9 @@
       <c r="S43" s="32"/>
       <c r="T43" s="32"/>
       <c r="U43" s="224"/>
-      <c r="V43" s="349"/>
-      <c r="W43" s="349"/>
-      <c r="X43" s="349"/>
+      <c r="V43" s="360"/>
+      <c r="W43" s="360"/>
+      <c r="X43" s="360"/>
       <c r="Y43" s="32"/>
       <c r="Z43" s="32"/>
       <c r="AA43" s="32"/>
@@ -25546,17 +25394,17 @@
       <c r="O49" s="1"/>
       <c r="P49" s="40"/>
       <c r="Q49" s="41"/>
-      <c r="R49" s="292" t="s">
+      <c r="R49" s="293" t="s">
         <v>106</v>
       </c>
-      <c r="S49" s="293"/>
-      <c r="T49" s="293"/>
-      <c r="U49" s="293"/>
-      <c r="V49" s="293"/>
-      <c r="W49" s="293"/>
-      <c r="X49" s="293"/>
-      <c r="Y49" s="293"/>
-      <c r="Z49" s="294"/>
+      <c r="S49" s="294"/>
+      <c r="T49" s="294"/>
+      <c r="U49" s="294"/>
+      <c r="V49" s="294"/>
+      <c r="W49" s="294"/>
+      <c r="X49" s="294"/>
+      <c r="Y49" s="294"/>
+      <c r="Z49" s="295"/>
       <c r="AA49" s="41"/>
       <c r="AB49" s="42"/>
       <c r="AC49" s="1"/>
@@ -26088,18 +25936,18 @@
       <c r="O61" s="1"/>
       <c r="P61" s="40"/>
       <c r="Q61" s="41"/>
-      <c r="R61" s="329" t="s">
+      <c r="R61" s="333" t="s">
         <v>85</v>
       </c>
-      <c r="S61" s="329"/>
-      <c r="T61" s="329"/>
+      <c r="S61" s="333"/>
+      <c r="T61" s="333"/>
       <c r="U61" s="143"/>
       <c r="V61" s="41"/>
-      <c r="W61" s="329" t="s">
+      <c r="W61" s="333" t="s">
         <v>86</v>
       </c>
-      <c r="X61" s="329"/>
-      <c r="Y61" s="329"/>
+      <c r="X61" s="333"/>
+      <c r="Y61" s="333"/>
       <c r="Z61" s="143"/>
       <c r="AA61" s="41"/>
       <c r="AB61" s="42"/>
@@ -26298,11 +26146,11 @@
       <c r="O65" s="1"/>
       <c r="P65" s="40"/>
       <c r="Q65" s="41"/>
-      <c r="R65" s="329" t="s">
+      <c r="R65" s="333" t="s">
         <v>107</v>
       </c>
-      <c r="S65" s="329"/>
-      <c r="T65" s="329"/>
+      <c r="S65" s="333"/>
+      <c r="T65" s="333"/>
       <c r="U65" s="143"/>
       <c r="V65" s="41"/>
       <c r="W65" s="41" t="s">
@@ -26552,15 +26400,15 @@
       <c r="O70" s="1"/>
       <c r="P70" s="40"/>
       <c r="Q70" s="41"/>
-      <c r="R70" s="329" t="s">
+      <c r="R70" s="333" t="s">
         <v>55</v>
       </c>
-      <c r="S70" s="329"/>
-      <c r="T70" s="329"/>
-      <c r="U70" s="329"/>
-      <c r="V70" s="329"/>
-      <c r="W70" s="329"/>
-      <c r="X70" s="329"/>
+      <c r="S70" s="333"/>
+      <c r="T70" s="333"/>
+      <c r="U70" s="333"/>
+      <c r="V70" s="333"/>
+      <c r="W70" s="333"/>
+      <c r="X70" s="333"/>
       <c r="Y70" s="143"/>
       <c r="Z70" s="143"/>
       <c r="AA70" s="41"/>
@@ -26652,11 +26500,11 @@
       <c r="S72" s="41"/>
       <c r="T72" s="41"/>
       <c r="U72" s="41"/>
-      <c r="V72" s="337">
+      <c r="V72" s="345">
         <v>0.2</v>
       </c>
-      <c r="W72" s="350"/>
-      <c r="X72" s="338"/>
+      <c r="W72" s="358"/>
+      <c r="X72" s="346"/>
       <c r="Y72" s="41" t="s">
         <v>38</v>
       </c>
@@ -26844,12 +26692,12 @@
       <c r="Q76" s="41"/>
       <c r="R76" s="41"/>
       <c r="S76" s="41"/>
-      <c r="T76" s="329" t="s">
+      <c r="T76" s="333" t="s">
         <v>88</v>
       </c>
-      <c r="U76" s="329"/>
-      <c r="V76" s="329"/>
-      <c r="W76" s="329"/>
+      <c r="U76" s="333"/>
+      <c r="V76" s="333"/>
+      <c r="W76" s="333"/>
       <c r="X76" s="143"/>
       <c r="Y76" s="41"/>
       <c r="Z76" s="41"/>
@@ -26895,11 +26743,11 @@
         <v>63</v>
       </c>
       <c r="U77" s="48"/>
-      <c r="V77" s="337">
+      <c r="V77" s="345">
         <f>T63+T68+SUM(V72:X74)</f>
         <v>2.0464500000000001</v>
       </c>
-      <c r="W77" s="338"/>
+      <c r="W77" s="346"/>
       <c r="X77" s="41" t="s">
         <v>38</v>
       </c>
@@ -26986,15 +26834,15 @@
       <c r="O79" s="1"/>
       <c r="P79" s="40"/>
       <c r="Q79" s="41"/>
-      <c r="R79" s="351" t="s">
+      <c r="R79" s="361" t="s">
         <v>89</v>
       </c>
-      <c r="S79" s="351"/>
-      <c r="T79" s="351"/>
-      <c r="U79" s="351"/>
-      <c r="V79" s="351"/>
-      <c r="W79" s="351"/>
-      <c r="X79" s="351"/>
+      <c r="S79" s="361"/>
+      <c r="T79" s="361"/>
+      <c r="U79" s="361"/>
+      <c r="V79" s="361"/>
+      <c r="W79" s="361"/>
+      <c r="X79" s="361"/>
       <c r="Y79" s="151"/>
       <c r="Z79" s="151"/>
       <c r="AA79" s="41"/>
@@ -27041,12 +26889,12 @@
       <c r="U80" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="V80" s="337">
+      <c r="V80" s="345">
         <f>10^-(V77/10)</f>
         <v>0.62424489581982234</v>
       </c>
-      <c r="W80" s="350"/>
-      <c r="X80" s="338"/>
+      <c r="W80" s="358"/>
+      <c r="X80" s="346"/>
       <c r="Y80" s="41"/>
       <c r="Z80" s="41"/>
       <c r="AA80" s="41"/>
@@ -27245,12 +27093,12 @@
       <c r="O84" s="1"/>
       <c r="P84" s="40"/>
       <c r="Q84" s="41"/>
-      <c r="R84" s="346" t="s">
+      <c r="R84" s="338" t="s">
         <v>112</v>
       </c>
-      <c r="S84" s="346"/>
-      <c r="T84" s="346"/>
-      <c r="U84" s="346" t="s">
+      <c r="S84" s="338"/>
+      <c r="T84" s="338"/>
+      <c r="U84" s="338" t="s">
         <v>100</v>
       </c>
       <c r="V84" s="339">
@@ -27298,16 +27146,16 @@
       <c r="O85" s="1"/>
       <c r="P85" s="40"/>
       <c r="Q85" s="41"/>
-      <c r="R85" s="346"/>
-      <c r="S85" s="346"/>
-      <c r="T85" s="346"/>
-      <c r="U85" s="346"/>
-      <c r="V85" s="337">
+      <c r="R85" s="338"/>
+      <c r="S85" s="338"/>
+      <c r="T85" s="338"/>
+      <c r="U85" s="338"/>
+      <c r="V85" s="345">
         <f>10^(V84/10)</f>
         <v>398.10717055349761</v>
       </c>
-      <c r="W85" s="350"/>
-      <c r="X85" s="338"/>
+      <c r="W85" s="358"/>
+      <c r="X85" s="346"/>
       <c r="Y85" s="41" t="s">
         <v>101</v>
       </c>
@@ -27409,12 +27257,12 @@
       <c r="U87" s="205" t="s">
         <v>105</v>
       </c>
-      <c r="V87" s="352">
+      <c r="V87" s="355">
         <f>V81*V80+V82*(1-V80)+V83+(V86/(V85/(10^(T68/10))))</f>
         <v>490.24870308294936</v>
       </c>
-      <c r="W87" s="353"/>
-      <c r="X87" s="354"/>
+      <c r="W87" s="356"/>
+      <c r="X87" s="357"/>
       <c r="Y87" s="41" t="s">
         <v>94</v>
       </c>
@@ -27463,11 +27311,11 @@
       <c r="U88" s="228" t="s">
         <v>453</v>
       </c>
-      <c r="V88" s="348">
+      <c r="V88" s="359">
         <v>650</v>
       </c>
-      <c r="W88" s="348"/>
-      <c r="X88" s="348"/>
+      <c r="W88" s="359"/>
+      <c r="X88" s="359"/>
       <c r="Y88" s="41" t="s">
         <v>94</v>
       </c>
@@ -27627,6 +27475,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="R88:T88"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="R81:T81"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="R82:T82"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="R80:T80"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="T76:W76"/>
+    <mergeCell ref="R79:X79"/>
+    <mergeCell ref="R70:X70"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="R86:T86"/>
+    <mergeCell ref="V86:X86"/>
+    <mergeCell ref="R87:T87"/>
+    <mergeCell ref="V87:X87"/>
+    <mergeCell ref="R83:T83"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="R84:T85"/>
+    <mergeCell ref="U84:U85"/>
+    <mergeCell ref="V84:X84"/>
+    <mergeCell ref="V85:X85"/>
+    <mergeCell ref="R2:Z2"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="R6:Z6"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="R25:X25"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="R34:X34"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="V35:X35"/>
     <mergeCell ref="R39:T40"/>
     <mergeCell ref="T31:W31"/>
     <mergeCell ref="U39:U40"/>
@@ -27643,60 +27545,6 @@
     <mergeCell ref="R42:T42"/>
     <mergeCell ref="V42:X42"/>
     <mergeCell ref="R49:Z49"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="R34:X34"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="R2:Z2"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="R6:Z6"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="R25:X25"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R70:X70"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="R86:T86"/>
-    <mergeCell ref="V86:X86"/>
-    <mergeCell ref="R87:T87"/>
-    <mergeCell ref="V87:X87"/>
-    <mergeCell ref="R83:T83"/>
-    <mergeCell ref="V83:X83"/>
-    <mergeCell ref="R84:T85"/>
-    <mergeCell ref="U84:U85"/>
-    <mergeCell ref="V84:X84"/>
-    <mergeCell ref="V85:X85"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="R88:T88"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="R81:T81"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="R82:T82"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="R80:T80"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="T76:W76"/>
-    <mergeCell ref="R79:X79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27791,17 +27639,17 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="296" t="s">
+      <c r="R2" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="297"/>
-      <c r="T2" s="297"/>
-      <c r="U2" s="297"/>
-      <c r="V2" s="297"/>
-      <c r="W2" s="297"/>
-      <c r="X2" s="297"/>
-      <c r="Y2" s="297"/>
-      <c r="Z2" s="298"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="291"/>
+      <c r="U2" s="291"/>
+      <c r="V2" s="291"/>
+      <c r="W2" s="291"/>
+      <c r="X2" s="291"/>
+      <c r="Y2" s="291"/>
+      <c r="Z2" s="292"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
@@ -27973,17 +27821,17 @@
       <c r="O6" s="1"/>
       <c r="P6" s="132"/>
       <c r="Q6" s="136"/>
-      <c r="R6" s="292" t="s">
+      <c r="R6" s="293" t="s">
         <v>115</v>
       </c>
-      <c r="S6" s="293"/>
-      <c r="T6" s="293"/>
-      <c r="U6" s="293"/>
-      <c r="V6" s="293"/>
-      <c r="W6" s="293"/>
-      <c r="X6" s="293"/>
-      <c r="Y6" s="293"/>
-      <c r="Z6" s="294"/>
+      <c r="S6" s="294"/>
+      <c r="T6" s="294"/>
+      <c r="U6" s="294"/>
+      <c r="V6" s="294"/>
+      <c r="W6" s="294"/>
+      <c r="X6" s="294"/>
+      <c r="Y6" s="294"/>
+      <c r="Z6" s="295"/>
       <c r="AA6" s="136"/>
       <c r="AB6" s="137"/>
       <c r="AC6" s="1"/>
@@ -29118,17 +28966,17 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="296" t="s">
+      <c r="R2" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="297"/>
-      <c r="T2" s="297"/>
-      <c r="U2" s="297"/>
-      <c r="V2" s="297"/>
-      <c r="W2" s="297"/>
-      <c r="X2" s="297"/>
-      <c r="Y2" s="297"/>
-      <c r="Z2" s="298"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="291"/>
+      <c r="U2" s="291"/>
+      <c r="V2" s="291"/>
+      <c r="W2" s="291"/>
+      <c r="X2" s="291"/>
+      <c r="Y2" s="291"/>
+      <c r="Z2" s="292"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
@@ -29300,17 +29148,17 @@
       <c r="O6" s="1"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="20"/>
-      <c r="R6" s="292" t="s">
+      <c r="R6" s="293" t="s">
         <v>121</v>
       </c>
-      <c r="S6" s="293"/>
-      <c r="T6" s="293"/>
-      <c r="U6" s="293"/>
-      <c r="V6" s="293"/>
-      <c r="W6" s="293"/>
-      <c r="X6" s="293"/>
-      <c r="Y6" s="293"/>
-      <c r="Z6" s="294"/>
+      <c r="S6" s="294"/>
+      <c r="T6" s="294"/>
+      <c r="U6" s="294"/>
+      <c r="V6" s="294"/>
+      <c r="W6" s="294"/>
+      <c r="X6" s="294"/>
+      <c r="Y6" s="294"/>
+      <c r="Z6" s="295"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="21"/>
       <c r="AC6" s="30"/>
@@ -29394,12 +29242,12 @@
       <c r="Q8" s="20"/>
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
-      <c r="T8" s="373" t="s">
+      <c r="T8" s="364" t="s">
         <v>122</v>
       </c>
-      <c r="U8" s="373"/>
-      <c r="V8" s="373"/>
-      <c r="W8" s="373"/>
+      <c r="U8" s="364"/>
+      <c r="V8" s="364"/>
+      <c r="W8" s="364"/>
       <c r="X8" s="51"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
@@ -29441,10 +29289,10 @@
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
-      <c r="T9" s="371" t="s">
+      <c r="T9" s="365" t="s">
         <v>123</v>
       </c>
-      <c r="U9" s="371"/>
+      <c r="U9" s="365"/>
       <c r="V9" s="156" t="s">
         <v>124</v>
       </c>
@@ -29495,10 +29343,10 @@
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
-      <c r="T10" s="371" t="s">
+      <c r="T10" s="365" t="s">
         <v>125</v>
       </c>
-      <c r="U10" s="371"/>
+      <c r="U10" s="365"/>
       <c r="V10" s="216" t="s">
         <v>126</v>
       </c>
@@ -29549,10 +29397,10 @@
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="371" t="s">
+      <c r="T11" s="365" t="s">
         <v>127</v>
       </c>
-      <c r="U11" s="371"/>
+      <c r="U11" s="365"/>
       <c r="V11" s="20" t="s">
         <v>128</v>
       </c>
@@ -29602,8 +29450,8 @@
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="375"/>
-      <c r="U12" s="375"/>
+      <c r="T12" s="367"/>
+      <c r="U12" s="367"/>
       <c r="V12" s="20"/>
       <c r="W12" s="223"/>
       <c r="X12" s="20"/>
@@ -29645,17 +29493,17 @@
       <c r="O13" s="1"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="20"/>
-      <c r="R13" s="292" t="s">
+      <c r="R13" s="293" t="s">
         <v>129</v>
       </c>
-      <c r="S13" s="293"/>
-      <c r="T13" s="293"/>
-      <c r="U13" s="293"/>
-      <c r="V13" s="293"/>
-      <c r="W13" s="374"/>
-      <c r="X13" s="293"/>
-      <c r="Y13" s="293"/>
-      <c r="Z13" s="294"/>
+      <c r="S13" s="294"/>
+      <c r="T13" s="294"/>
+      <c r="U13" s="294"/>
+      <c r="V13" s="294"/>
+      <c r="W13" s="366"/>
+      <c r="X13" s="294"/>
+      <c r="Y13" s="294"/>
+      <c r="Z13" s="295"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="21"/>
       <c r="AC13" s="30"/>
@@ -29739,12 +29587,12 @@
       <c r="Q15" s="20"/>
       <c r="R15" s="52"/>
       <c r="S15" s="52"/>
-      <c r="T15" s="373" t="s">
+      <c r="T15" s="364" t="s">
         <v>122</v>
       </c>
-      <c r="U15" s="373"/>
-      <c r="V15" s="373"/>
-      <c r="W15" s="373"/>
+      <c r="U15" s="364"/>
+      <c r="V15" s="364"/>
+      <c r="W15" s="364"/>
       <c r="X15" s="51"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
@@ -29786,10 +29634,10 @@
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="371" t="s">
+      <c r="T16" s="365" t="s">
         <v>130</v>
       </c>
-      <c r="U16" s="371"/>
+      <c r="U16" s="365"/>
       <c r="V16" s="210" t="s">
         <v>131</v>
       </c>
@@ -29839,10 +29687,10 @@
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="371" t="s">
+      <c r="T17" s="365" t="s">
         <v>132</v>
       </c>
-      <c r="U17" s="371"/>
+      <c r="U17" s="365"/>
       <c r="V17" s="210" t="s">
         <v>131</v>
       </c>
@@ -30162,17 +30010,17 @@
       <c r="O24" s="1"/>
       <c r="P24" s="31"/>
       <c r="Q24" s="32"/>
-      <c r="R24" s="292" t="s">
+      <c r="R24" s="293" t="s">
         <v>133</v>
       </c>
-      <c r="S24" s="293"/>
-      <c r="T24" s="293"/>
-      <c r="U24" s="293"/>
-      <c r="V24" s="293"/>
-      <c r="W24" s="293"/>
-      <c r="X24" s="293"/>
-      <c r="Y24" s="293"/>
-      <c r="Z24" s="294"/>
+      <c r="S24" s="294"/>
+      <c r="T24" s="294"/>
+      <c r="U24" s="294"/>
+      <c r="V24" s="294"/>
+      <c r="W24" s="294"/>
+      <c r="X24" s="294"/>
+      <c r="Y24" s="294"/>
+      <c r="Z24" s="295"/>
       <c r="AA24" s="32"/>
       <c r="AB24" s="33"/>
       <c r="AC24" s="7"/>
@@ -30667,11 +30515,11 @@
       <c r="S35" s="61"/>
       <c r="T35" s="61"/>
       <c r="U35" s="61"/>
-      <c r="V35" s="330" t="s">
+      <c r="V35" s="329" t="s">
         <v>136</v>
       </c>
-      <c r="W35" s="330"/>
-      <c r="X35" s="330"/>
+      <c r="W35" s="329"/>
+      <c r="X35" s="329"/>
       <c r="Y35" s="203">
         <v>5</v>
       </c>
@@ -30718,11 +30566,11 @@
       <c r="S36" s="61"/>
       <c r="T36" s="61"/>
       <c r="U36" s="61"/>
-      <c r="V36" s="330" t="s">
+      <c r="V36" s="329" t="s">
         <v>137</v>
       </c>
-      <c r="W36" s="330"/>
-      <c r="X36" s="330"/>
+      <c r="W36" s="329"/>
+      <c r="X36" s="329"/>
       <c r="Y36" s="158">
         <f>12*((Y35/42)^2)</f>
         <v>0.17006802721088435</v>
@@ -30770,11 +30618,11 @@
       <c r="S37" s="61"/>
       <c r="T37" s="61"/>
       <c r="U37" s="61"/>
-      <c r="V37" s="330" t="s">
+      <c r="V37" s="329" t="s">
         <v>138</v>
       </c>
-      <c r="W37" s="330"/>
-      <c r="X37" s="330"/>
+      <c r="W37" s="329"/>
+      <c r="X37" s="329"/>
       <c r="Y37" s="203">
         <v>20</v>
       </c>
@@ -30821,11 +30669,11 @@
       <c r="S38" s="61"/>
       <c r="T38" s="61"/>
       <c r="U38" s="61"/>
-      <c r="V38" s="330" t="s">
+      <c r="V38" s="329" t="s">
         <v>139</v>
       </c>
-      <c r="W38" s="330"/>
-      <c r="X38" s="330"/>
+      <c r="W38" s="329"/>
+      <c r="X38" s="329"/>
       <c r="Y38" s="204">
         <f>0.3</f>
         <v>0.3</v>
@@ -30873,9 +30721,9 @@
       <c r="S39" s="61"/>
       <c r="T39" s="61"/>
       <c r="U39" s="61"/>
-      <c r="V39" s="330"/>
-      <c r="W39" s="330"/>
-      <c r="X39" s="330"/>
+      <c r="V39" s="329"/>
+      <c r="W39" s="329"/>
+      <c r="X39" s="329"/>
       <c r="Y39" s="66"/>
       <c r="Z39" s="64"/>
       <c r="AA39" s="32"/>
@@ -31368,17 +31216,17 @@
       <c r="O50" s="1"/>
       <c r="P50" s="31"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="292" t="s">
+      <c r="R50" s="293" t="s">
         <v>141</v>
       </c>
-      <c r="S50" s="293"/>
-      <c r="T50" s="293"/>
-      <c r="U50" s="293"/>
-      <c r="V50" s="293"/>
-      <c r="W50" s="293"/>
-      <c r="X50" s="293"/>
-      <c r="Y50" s="293"/>
-      <c r="Z50" s="294"/>
+      <c r="S50" s="294"/>
+      <c r="T50" s="294"/>
+      <c r="U50" s="294"/>
+      <c r="V50" s="294"/>
+      <c r="W50" s="294"/>
+      <c r="X50" s="294"/>
+      <c r="Y50" s="294"/>
+      <c r="Z50" s="295"/>
       <c r="AA50" s="32"/>
       <c r="AB50" s="33"/>
       <c r="AC50" s="7"/>
@@ -31505,13 +31353,13 @@
       <c r="O53" s="1"/>
       <c r="P53" s="31"/>
       <c r="Q53" s="32"/>
-      <c r="R53" s="372" t="s">
+      <c r="R53" s="369" t="s">
         <v>142</v>
       </c>
-      <c r="S53" s="372"/>
-      <c r="T53" s="372"/>
-      <c r="U53" s="372"/>
-      <c r="V53" s="372"/>
+      <c r="S53" s="369"/>
+      <c r="T53" s="369"/>
+      <c r="U53" s="369"/>
+      <c r="V53" s="369"/>
       <c r="W53" s="208"/>
       <c r="X53" s="64"/>
       <c r="Y53" s="64"/>
@@ -31802,12 +31650,12 @@
       <c r="O59" s="1"/>
       <c r="P59" s="31"/>
       <c r="Q59" s="32"/>
-      <c r="R59" s="369" t="s">
+      <c r="R59" s="370" t="s">
         <v>147</v>
       </c>
-      <c r="S59" s="369"/>
-      <c r="T59" s="369"/>
-      <c r="U59" s="369"/>
+      <c r="S59" s="370"/>
+      <c r="T59" s="370"/>
+      <c r="U59" s="370"/>
       <c r="V59" s="61"/>
       <c r="W59" s="61"/>
       <c r="X59" s="64"/>
@@ -31849,11 +31697,11 @@
       <c r="O60" s="1"/>
       <c r="P60" s="31"/>
       <c r="Q60" s="32"/>
-      <c r="R60" s="370" t="s">
+      <c r="R60" s="371" t="s">
         <v>148</v>
       </c>
-      <c r="S60" s="370"/>
-      <c r="T60" s="370"/>
+      <c r="S60" s="371"/>
+      <c r="T60" s="371"/>
       <c r="U60" s="204">
         <f>10*LOG10(1-'Backend Data'!D34)</f>
         <v>-12.907320722611759</v>
@@ -31901,11 +31749,11 @@
       <c r="O61" s="1"/>
       <c r="P61" s="31"/>
       <c r="Q61" s="32"/>
-      <c r="R61" s="370" t="s">
+      <c r="R61" s="371" t="s">
         <v>149</v>
       </c>
-      <c r="S61" s="370"/>
-      <c r="T61" s="370"/>
+      <c r="S61" s="371"/>
+      <c r="T61" s="371"/>
       <c r="U61" s="158">
         <f>U57-U60</f>
         <v>13.135572865218929</v>
@@ -32178,17 +32026,17 @@
       <c r="O67" s="1"/>
       <c r="P67" s="40"/>
       <c r="Q67" s="41"/>
-      <c r="R67" s="292" t="s">
+      <c r="R67" s="293" t="s">
         <v>150</v>
       </c>
-      <c r="S67" s="293"/>
-      <c r="T67" s="293"/>
-      <c r="U67" s="293"/>
-      <c r="V67" s="293"/>
-      <c r="W67" s="293"/>
-      <c r="X67" s="293"/>
-      <c r="Y67" s="293"/>
-      <c r="Z67" s="294"/>
+      <c r="S67" s="294"/>
+      <c r="T67" s="294"/>
+      <c r="U67" s="294"/>
+      <c r="V67" s="294"/>
+      <c r="W67" s="294"/>
+      <c r="X67" s="294"/>
+      <c r="Y67" s="294"/>
+      <c r="Z67" s="295"/>
       <c r="AA67" s="41"/>
       <c r="AB67" s="42"/>
       <c r="AC67" s="1"/>
@@ -33387,17 +33235,17 @@
       <c r="O93" s="1"/>
       <c r="P93" s="40"/>
       <c r="Q93" s="41"/>
-      <c r="R93" s="292" t="s">
+      <c r="R93" s="293" t="s">
         <v>153</v>
       </c>
-      <c r="S93" s="293"/>
-      <c r="T93" s="293"/>
-      <c r="U93" s="293"/>
-      <c r="V93" s="293"/>
-      <c r="W93" s="293"/>
-      <c r="X93" s="293"/>
-      <c r="Y93" s="293"/>
-      <c r="Z93" s="294"/>
+      <c r="S93" s="294"/>
+      <c r="T93" s="294"/>
+      <c r="U93" s="294"/>
+      <c r="V93" s="294"/>
+      <c r="W93" s="294"/>
+      <c r="X93" s="294"/>
+      <c r="Y93" s="294"/>
+      <c r="Z93" s="295"/>
       <c r="AA93" s="41"/>
       <c r="AB93" s="42"/>
       <c r="AC93" s="1"/>
@@ -33524,13 +33372,13 @@
       <c r="O96" s="1"/>
       <c r="P96" s="40"/>
       <c r="Q96" s="41"/>
-      <c r="R96" s="366" t="s">
+      <c r="R96" s="374" t="s">
         <v>142</v>
       </c>
-      <c r="S96" s="366"/>
-      <c r="T96" s="366"/>
-      <c r="U96" s="366"/>
-      <c r="V96" s="366"/>
+      <c r="S96" s="374"/>
+      <c r="T96" s="374"/>
+      <c r="U96" s="374"/>
+      <c r="V96" s="374"/>
       <c r="W96" s="207"/>
       <c r="X96" s="74"/>
       <c r="Y96" s="74"/>
@@ -33571,11 +33419,11 @@
       <c r="O97" s="1"/>
       <c r="P97" s="40"/>
       <c r="Q97" s="41"/>
-      <c r="R97" s="367" t="s">
+      <c r="R97" s="375" t="s">
         <v>154</v>
       </c>
-      <c r="S97" s="367"/>
-      <c r="T97" s="367"/>
+      <c r="S97" s="375"/>
+      <c r="T97" s="375"/>
       <c r="U97" s="203">
         <v>1</v>
       </c>
@@ -33622,11 +33470,11 @@
       <c r="O98" s="1"/>
       <c r="P98" s="40"/>
       <c r="Q98" s="41"/>
-      <c r="R98" s="367" t="s">
+      <c r="R98" s="375" t="s">
         <v>155</v>
       </c>
-      <c r="S98" s="367"/>
-      <c r="T98" s="367"/>
+      <c r="S98" s="375"/>
+      <c r="T98" s="375"/>
       <c r="U98" s="203">
         <v>1</v>
       </c>
@@ -33673,11 +33521,11 @@
       <c r="O99" s="1"/>
       <c r="P99" s="40"/>
       <c r="Q99" s="41"/>
-      <c r="R99" s="367" t="s">
+      <c r="R99" s="375" t="s">
         <v>145</v>
       </c>
-      <c r="S99" s="367"/>
-      <c r="T99" s="367"/>
+      <c r="S99" s="375"/>
+      <c r="T99" s="375"/>
       <c r="U99" s="203">
         <v>90</v>
       </c>
@@ -33724,11 +33572,11 @@
       <c r="O100" s="1"/>
       <c r="P100" s="40"/>
       <c r="Q100" s="41"/>
-      <c r="R100" s="367" t="s">
+      <c r="R100" s="375" t="s">
         <v>146</v>
       </c>
-      <c r="S100" s="367"/>
-      <c r="T100" s="367"/>
+      <c r="S100" s="375"/>
+      <c r="T100" s="375"/>
       <c r="U100" s="204">
         <f>-10*LOG('Backend Data'!D41)</f>
         <v>0.22825214260717014</v>
@@ -33821,12 +33669,12 @@
       <c r="O102" s="1"/>
       <c r="P102" s="40"/>
       <c r="Q102" s="41"/>
-      <c r="R102" s="364" t="s">
+      <c r="R102" s="372" t="s">
         <v>147</v>
       </c>
-      <c r="S102" s="364"/>
-      <c r="T102" s="364"/>
-      <c r="U102" s="364"/>
+      <c r="S102" s="372"/>
+      <c r="T102" s="372"/>
+      <c r="U102" s="372"/>
       <c r="V102" s="75"/>
       <c r="W102" s="75"/>
       <c r="X102" s="74"/>
@@ -33868,11 +33716,11 @@
       <c r="O103" s="1"/>
       <c r="P103" s="40"/>
       <c r="Q103" s="41"/>
-      <c r="R103" s="365" t="s">
+      <c r="R103" s="373" t="s">
         <v>148</v>
       </c>
-      <c r="S103" s="365"/>
-      <c r="T103" s="365"/>
+      <c r="S103" s="373"/>
+      <c r="T103" s="373"/>
       <c r="U103" s="204">
         <f>10*LOG10(1-'Backend Data'!D41)</f>
         <v>-12.907320722611759</v>
@@ -33920,11 +33768,11 @@
       <c r="O104" s="1"/>
       <c r="P104" s="40"/>
       <c r="Q104" s="41"/>
-      <c r="R104" s="365" t="s">
+      <c r="R104" s="373" t="s">
         <v>149</v>
       </c>
-      <c r="S104" s="365"/>
-      <c r="T104" s="365"/>
+      <c r="S104" s="373"/>
+      <c r="T104" s="373"/>
       <c r="U104" s="204">
         <f>U100-U103</f>
         <v>13.135572865218929</v>
@@ -34136,15 +33984,26 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="R2:Z2"/>
-    <mergeCell ref="R6:Z6"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="R13:Z13"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="R102:U102"/>
+    <mergeCell ref="R103:T103"/>
+    <mergeCell ref="R104:T104"/>
+    <mergeCell ref="R96:V96"/>
+    <mergeCell ref="R97:T97"/>
+    <mergeCell ref="R98:T98"/>
+    <mergeCell ref="R99:T99"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="R93:Z93"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="R59:U59"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="R61:T61"/>
+    <mergeCell ref="R67:Z67"/>
     <mergeCell ref="R55:T55"/>
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="T17:U17"/>
@@ -34157,26 +34016,15 @@
     <mergeCell ref="R53:V53"/>
     <mergeCell ref="R50:Z50"/>
     <mergeCell ref="R54:T54"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="R57:T57"/>
-    <mergeCell ref="R59:U59"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="R61:T61"/>
-    <mergeCell ref="R67:Z67"/>
-    <mergeCell ref="R93:Z93"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="R102:U102"/>
-    <mergeCell ref="R103:T103"/>
-    <mergeCell ref="R104:T104"/>
-    <mergeCell ref="R96:V96"/>
-    <mergeCell ref="R97:T97"/>
-    <mergeCell ref="R98:T98"/>
-    <mergeCell ref="R99:T99"/>
-    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="R2:Z2"/>
+    <mergeCell ref="R6:Z6"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="R13:Z13"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
   </mergeCells>
   <conditionalFormatting sqref="Y38">
     <cfRule type="expression" dxfId="44" priority="46">
@@ -34357,7 +34205,7 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -34390,13 +34238,13 @@
     <row r="2" spans="1:11" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="292" t="s">
+      <c r="C2" s="293" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="295"/>
       <c r="H2" s="126"/>
       <c r="I2" s="126"/>
       <c r="J2" s="126"/>
@@ -35299,6 +35147,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="0f79ac94-e588-4a76-8f43-fa84dedf7eed">
@@ -35340,15 +35197,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35555,6 +35403,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94F528F6-6B5B-4C69-B6C2-5569144139F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7B624CC-EC21-4ECE-9B2C-488EF5EECB77}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -35567,14 +35423,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94F528F6-6B5B-4C69-B6C2-5569144139F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
